--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E40F3-3EF1-6947-A02C-DCB00D3D646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E2D62-4D96-6342-9443-3BB9572E0A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -549,22 +549,29 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -896,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -937,9 +944,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -952,12 +956,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1013,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2221,13 +2235,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>39.99</v>
-    <v>16.482800000000001</v>
-    <v>2.5150000000000001</v>
-    <v>0.9</v>
-    <v>3.8087000000000003E-2</v>
-    <v>-0.03</v>
-    <v>-1.2230000000000001E-3</v>
+    <v>34.39</v>
+    <v>16.600000000000001</v>
+    <v>2.4910000000000001</v>
+    <v>-0.87</v>
+    <v>-3.0146000000000003E-2</v>
+    <v>0.08</v>
+    <v>2.8579999999999999E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2235,24 +2249,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>24.71</v>
+    <v>29.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.995485092186</v>
+    <v>45071.979338448436</v>
     <v>0</v>
-    <v>23.51</v>
-    <v>7246471000</v>
+    <v>27.754999999999999</v>
+    <v>8288734680</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>23.75</v>
-    <v>23.63</v>
-    <v>24.53</v>
-    <v>24.5</v>
-    <v>295412600</v>
+    <v>29.32</v>
+    <v>28.86</v>
+    <v>27.99</v>
+    <v>28.07</v>
+    <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>3960316</v>
-    <v>2388879</v>
+    <v>3465487</v>
+    <v>4400023</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2414,9 +2428,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2836,10 +2850,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,19 +2879,19 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="27">
         <v>2023</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="27">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="27">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="27">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -2929,20 +2943,20 @@
       <c r="E3" s="1">
         <v>585944000</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>762900000</v>
       </c>
-      <c r="G3" s="29">
-        <v>978900000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>1247000000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>1900000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>2043000000</v>
+      <c r="G3" s="28">
+        <v>972000000</v>
+      </c>
+      <c r="H3" s="28">
+        <v>1241000000</v>
+      </c>
+      <c r="I3" s="28">
+        <v>1481000000</v>
+      </c>
+      <c r="J3" s="28">
+        <v>1795000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>109</v>
@@ -2980,19 +2994,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28313016122689727</v>
+        <v>0.27408572552103805</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27387884359995907</v>
+        <v>0.27674897119341568</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.52365677626303131</v>
+        <v>0.19339242546333613</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5263157894736921E-2</v>
+        <v>0.21201890614449703</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3226,7 +3240,7 @@
         <v>582162000</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>117</v>
@@ -3275,7 +3289,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24525679463638253</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="61">
         <f>E67/E72</f>
         <v>2.0473282502271024</v>
       </c>
@@ -3342,24 +3356,24 @@
       <c r="E16" s="1">
         <v>1048618000</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="29">
         <f>(E35+D35+C35+B35)/4</f>
         <v>7.994672062666941E-2</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>12.367173313490708</v>
-      </c>
-      <c r="M16" s="31">
+        <v>14.145950261458433</v>
+      </c>
+      <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-16.012495829199359</v>
-      </c>
-      <c r="N16" s="32">
+        <v>-18.315581404084842</v>
+      </c>
+      <c r="N16" s="60">
         <f>M101/E106</f>
-        <v>-42.182637902531027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>-48.249788576617689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3376,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3395,8 +3409,14 @@
       <c r="K18" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3412,12 +3432,35 @@
       <c r="E19" s="10">
         <v>-447529000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="57">
+        <v>-89920000</v>
+      </c>
+      <c r="G19" s="57">
+        <v>23100000</v>
+      </c>
+      <c r="H19" s="57">
+        <v>90176000</v>
+      </c>
+      <c r="I19" s="57">
+        <v>181700000</v>
+      </c>
+      <c r="J19" s="57">
+        <v>309900000</v>
+      </c>
+      <c r="K19" s="30">
         <f>E40-E56-E61</f>
         <v>809814000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="59">
+        <f>M101/F3</f>
+        <v>10.864772158867479</v>
+      </c>
+      <c r="M19" s="62">
+        <f>M101/F28</f>
+        <v>-163.57945728325868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3434,8 +3477,28 @@
         <f>(E19/D19)-1</f>
         <v>0.33195136832393346</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-0.79907447338608217</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.2568950177935942</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9037229437229439</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0149485450674236</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.70555861309851409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3451,8 +3514,28 @@
       <c r="E21" s="2">
         <v>-0.76380000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="58">
+        <f>F19/F3</f>
+        <v>-0.11786603748853061</v>
+      </c>
+      <c r="G21" s="58">
+        <f t="shared" ref="G21:J21" si="4">G19/G3</f>
+        <v>2.3765432098765433E-2</v>
+      </c>
+      <c r="H21" s="58">
+        <f t="shared" si="4"/>
+        <v>7.2663980660757452E-2</v>
+      </c>
+      <c r="I21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.12268737339635381</v>
+      </c>
+      <c r="J21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.17264623955431754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3552,7 @@
         <v>-462674000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3569,7 @@
         <v>-0.78959999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3503,7 +3586,7 @@
         <v>16416000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3520,7 +3603,7 @@
         <v>-446258000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3620,7 @@
         <v>-0.76160000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3554,7 +3637,7 @@
         <v>6293000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3570,8 +3653,23 @@
       <c r="E28" s="11">
         <v>-452551000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="11">
+        <v>-50671000</v>
+      </c>
+      <c r="G28" s="11">
+        <v>44745000</v>
+      </c>
+      <c r="H28" s="11">
+        <v>98118000</v>
+      </c>
+      <c r="I28" s="11">
+        <v>105800000</v>
+      </c>
+      <c r="J28" s="11">
+        <v>196000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3588,8 +3686,28 @@
         <f>(E28/D28)-1</f>
         <v>0.32015659230865712</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="15">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.88803250904317965</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="5"/>
+        <v>-1.8830494760316552</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1928260140797855</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="5"/>
+        <v>7.8293483356774551E-2</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.85255198487712658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3605,8 +3723,28 @@
       <c r="E30" s="2">
         <v>-0.77229999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <f>F28/F3</f>
+        <v>-6.6418927775593134E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:J30" si="6">G28/G3</f>
+        <v>4.603395061728395E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="6"/>
+        <v>7.9063658340048346E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="6"/>
+        <v>7.1438217420661712E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10919220055710306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3623,7 +3761,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3679,16 +3817,16 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>-5.6846923379533433E-2</v>
       </c>
-      <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+      <c r="D35" s="22">
+        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
         <v>-0.10819756990521552</v>
       </c>
-      <c r="E35" s="23">
-        <f t="shared" si="3"/>
+      <c r="E35" s="22">
+        <f t="shared" si="7"/>
         <v>0.4848313757914266</v>
       </c>
     </row>
@@ -4445,19 +4583,19 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>0.12427489069123193</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.60589575487050729</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.40123342202421469</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.47386098330215859</v>
       </c>
     </row>
@@ -4511,10 +4649,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4532,10 +4670,10 @@
       <c r="E84" s="1">
         <v>13580000</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="70"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4553,10 +4691,10 @@
       <c r="E85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L85" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="M85" s="25">
+      <c r="M85" s="24">
         <f>E17</f>
         <v>0</v>
       </c>
@@ -4577,10 +4715,10 @@
       <c r="E86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L86" s="24" t="s">
+      <c r="L86" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M86" s="25">
+      <c r="M86" s="24">
         <f>E56</f>
         <v>7375000</v>
       </c>
@@ -4601,10 +4739,10 @@
       <c r="E87" s="10">
         <v>-157333000</v>
       </c>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M87" s="25">
+      <c r="M87" s="24">
         <f>E61</f>
         <v>1109636000</v>
       </c>
@@ -4625,10 +4763,10 @@
       <c r="E88" s="1">
         <v>-4121000</v>
       </c>
-      <c r="L88" s="34" t="s">
+      <c r="L88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="32">
         <f>M85/(M86+M87)</f>
         <v>0</v>
       </c>
@@ -4638,25 +4776,25 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
         <v>1.3043623377056841E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.3960317359675706E-3</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.2816038611472067E-3</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0330953128626625E-3</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L89" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M89" s="25">
+      <c r="M89" s="24">
         <f>E27</f>
         <v>6293000</v>
       </c>
@@ -4677,10 +4815,10 @@
       <c r="E90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L90" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="M90" s="24">
         <f>E25</f>
         <v>-446258000</v>
       </c>
@@ -4701,10 +4839,10 @@
       <c r="E91" s="1">
         <v>-2051908000</v>
       </c>
-      <c r="L91" s="34" t="s">
+      <c r="L91" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="M91" s="35">
+      <c r="M91" s="32">
         <f>M89/M90</f>
         <v>-1.4101707980585222E-2</v>
       </c>
@@ -4725,10 +4863,10 @@
       <c r="E92" s="1">
         <v>1200558000</v>
       </c>
-      <c r="L92" s="36" t="s">
+      <c r="L92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="M92" s="37">
+      <c r="M92" s="34">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4749,10 +4887,10 @@
       <c r="E93" s="1">
         <v>-10334000</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="M93" s="65"/>
+      <c r="M93" s="70"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4770,10 +4908,10 @@
       <c r="E94" s="10">
         <v>-865805000</v>
       </c>
-      <c r="L94" s="24" t="s">
+      <c r="L94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="M94" s="38">
+      <c r="M94" s="35">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4793,12 +4931,12 @@
       <c r="E95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L95" s="24" t="s">
+      <c r="L95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="M95" s="39" cm="1">
+      <c r="M95" s="36" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5150000000000001</v>
+        <v>2.4910000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4817,10 +4955,10 @@
       <c r="E96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L96" s="24" t="s">
+      <c r="L96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="M96" s="38">
+      <c r="M96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4840,12 +4978,12 @@
       <c r="E97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L97" s="36" t="s">
+      <c r="L97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="M97" s="37">
+      <c r="M97" s="34">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14922075000000001</v>
+        <v>0.14818755</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4864,10 +5002,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="70"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4885,10 +5023,10 @@
       <c r="E99" s="1">
         <v>82241000</v>
       </c>
-      <c r="L99" s="24" t="s">
+      <c r="L99" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M99" s="25">
+      <c r="M99" s="24">
         <f>M86+M87</f>
         <v>1117011000</v>
       </c>
@@ -4909,12 +5047,12 @@
       <c r="E100" s="10">
         <v>82241000</v>
       </c>
-      <c r="L100" s="34" t="s">
+      <c r="L100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="M100" s="35">
+      <c r="M100" s="32">
         <f>M99/M103</f>
-        <v>0.13355812806197229</v>
+        <v>0.11875836727917993</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4933,12 +5071,12 @@
       <c r="E101" s="1">
         <v>-4000</v>
       </c>
-      <c r="L101" s="24" t="s">
+      <c r="L101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="M101" s="40" cm="1">
+      <c r="M101" s="37" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7246471000</v>
+        <v>8288734680</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4957,12 +5095,12 @@
       <c r="E102" s="10">
         <v>-940901000</v>
       </c>
-      <c r="L102" s="34" t="s">
+      <c r="L102" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M102" s="35">
+      <c r="M102" s="32">
         <f>M101/M103</f>
-        <v>0.86644187193802769</v>
+        <v>0.88124163272082012</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4981,12 +5119,12 @@
       <c r="E103" s="1">
         <v>1376682000</v>
       </c>
-      <c r="L103" s="36" t="s">
+      <c r="L103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M103" s="41">
+      <c r="M103" s="38">
         <f>M99+M101</f>
-        <v>8363482000</v>
+        <v>9405745680</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,10 +5143,10 @@
       <c r="E104" s="11">
         <v>435781000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="M104" s="65"/>
+      <c r="M104" s="70"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5027,18 +5165,28 @@
         <f>(E106/D106)-1</f>
         <v>0.5068858441079982</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="63">
+        <v>-66692000</v>
+      </c>
+      <c r="G105" s="63">
+        <v>53165000</v>
+      </c>
+      <c r="H105" s="63">
+        <v>126200000</v>
+      </c>
+      <c r="I105" s="63">
+        <v>191000000</v>
+      </c>
+      <c r="J105" s="63">
+        <v>315000000</v>
+      </c>
       <c r="K105" s="15"/>
-      <c r="L105" s="26" t="s">
+      <c r="L105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="26">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12929110596199644</v>
+        <v>0.13058903851089818</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5057,35 +5205,35 @@
       <c r="E106" s="1">
         <v>-171788000</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="39">
         <f>E106*(1+$M$106)</f>
-        <v>-221878992.79038215</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>-286575822.7680307</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>-370137349.02231658</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>-478064254.75105214</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>-617461145.90802681</v>
-      </c>
-      <c r="K106" s="43" t="s">
+        <v>-215018367.21900982</v>
+      </c>
+      <c r="G106" s="39">
+        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
+        <v>-269127635.46655738</v>
+      </c>
+      <c r="H106" s="39">
+        <f t="shared" si="10"/>
+        <v>-336853474.93149722</v>
+      </c>
+      <c r="I106" s="39">
+        <f t="shared" si="10"/>
+        <v>-421622489.1832968</v>
+      </c>
+      <c r="J106" s="39">
+        <f t="shared" si="10"/>
+        <v>-527723584.92448312</v>
+      </c>
+      <c r="K106" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="L106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="45">
+      <c r="M106" s="42">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.29158609908947164</v>
+        <v>0.2516495169570041</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5094,139 +5242,139 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-6068568059.7380438</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="64">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>3057845819.5419126</v>
+      </c>
+      <c r="K107" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="L107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>-221878992.79038215</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>-286575822.7680307</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>-370137349.02231658</v>
-      </c>
-      <c r="I108" s="46">
+      <c r="F108" s="43">
+        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
+        <v>-215018367.21900982</v>
+      </c>
+      <c r="G108" s="43">
+        <f t="shared" si="11"/>
+        <v>-269127635.46655738</v>
+      </c>
+      <c r="H108" s="43">
+        <f t="shared" si="11"/>
+        <v>-336853474.93149722</v>
+      </c>
+      <c r="I108" s="43">
         <f>I107+I106</f>
-        <v>-478064254.75105214</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>-6686029205.6460705</v>
-      </c>
-      <c r="K108" s="47" t="s">
+        <v>-421622489.1832968</v>
+      </c>
+      <c r="J108" s="64">
+        <f>J107+J105</f>
+        <v>3372845819.5419126</v>
+      </c>
+      <c r="K108" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="M108" s="51">
+      <c r="M108" s="48">
         <f>M105</f>
-        <v>0.12929110596199644</v>
+        <v>0.13058903851089818</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="66"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
+      <c r="F110" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G110" s="40">
+      <c r="G110" s="37">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-4612451954.3998756</v>
+        <v>934010104.88755488</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
+      <c r="F111" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="40">
+      <c r="G111" s="37">
         <f>E40</f>
         <v>1926825000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
+      <c r="F112" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G112" s="40">
+      <c r="G112" s="37">
         <f>M99</f>
         <v>1117011000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
+      <c r="F113" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G113" s="40">
+      <c r="G113" s="37">
         <f>G110+G111-G112</f>
-        <v>-3802637954.3998756</v>
+        <v>1743824104.8875551</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="53">
-        <f>E34*(1+(5*K16))</f>
-        <v>392037887.27048421</v>
+      <c r="F114" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" s="50" cm="1">
+        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>296132000</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G115" s="59">
+      <c r="G115" s="56">
         <f>G113/G114</f>
-        <v>-9.6996695418273902</v>
+        <v>5.8886716224101248</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
+      <c r="F116" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="55" cm="1">
+      <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>24.53</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="56" t="s">
+      <c r="F117" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="57">
+      <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-1.3954206906574558</v>
+        <v>-0.78961516175740887</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="56" t="s">
+      <c r="F118" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G118" s="58" t="str">
+      <c r="G118" s="55" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E2D62-4D96-6342-9443-3BB9572E0A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E405F9-06A9-B543-B2D1-29C62C9250B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2237,11 +2237,11 @@
     <v>Powered by Refinitiv</v>
     <v>34.39</v>
     <v>16.600000000000001</v>
-    <v>2.4910000000000001</v>
-    <v>-0.87</v>
-    <v>-3.0146000000000003E-2</v>
-    <v>0.08</v>
-    <v>2.8579999999999999E-3</v>
+    <v>2.5310000000000001</v>
+    <v>0.72</v>
+    <v>2.5722999999999999E-2</v>
+    <v>-0.18</v>
+    <v>-6.2700000000000004E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2249,24 +2249,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>29.52</v>
+    <v>29.62</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.979338448436</v>
+    <v>45072.998694166403</v>
     <v>0</v>
-    <v>27.754999999999999</v>
-    <v>8288734680</v>
+    <v>27.88</v>
+    <v>8501950000</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>29.32</v>
-    <v>28.86</v>
+    <v>27.88</v>
     <v>27.99</v>
-    <v>28.07</v>
+    <v>28.71</v>
+    <v>28.53</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>3465487</v>
-    <v>4400023</v>
+    <v>3265708</v>
+    <v>4407299</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2428,9 +2428,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2850,10 +2850,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3362,15 +3362,15 @@
       </c>
       <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>14.145950261458433</v>
+        <v>14.509833704244775</v>
       </c>
       <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-18.315581404084842</v>
+        <v>-18.786722380460986</v>
       </c>
       <c r="N16" s="60">
         <f>M101/E106</f>
-        <v>-48.249788576617689</v>
+        <v>-49.490942324260132</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3453,11 +3453,11 @@
       </c>
       <c r="L19" s="59">
         <f>M101/F3</f>
-        <v>10.864772158867479</v>
+        <v>11.144252195569537</v>
       </c>
       <c r="M19" s="62">
         <f>M101/F28</f>
-        <v>-163.57945728325868</v>
+        <v>-167.78729450770658</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="M95" s="36" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.4910000000000001</v>
+        <v>2.5310000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="M97" s="34">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14818755</v>
+        <v>0.14990955</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="M100" s="32">
         <f>M99/M103</f>
-        <v>0.11875836727917993</v>
+        <v>0.11612595164903985</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="M101" s="37" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8288734680</v>
+        <v>8501950000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M102" s="32">
         <f>M101/M103</f>
-        <v>0.88124163272082012</v>
+        <v>0.88387404835096017</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="M103" s="38">
         <f>M99+M101</f>
-        <v>9405745680</v>
+        <v>9618961000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M105" s="26">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13058903851089818</v>
+        <v>0.13250116084497068</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5248,7 +5248,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="64">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3057845819.5419126</v>
+        <v>3003455939.1002641</v>
       </c>
       <c r="K107" s="44" t="s">
         <v>148</v>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="J108" s="64">
         <f>J107+J105</f>
-        <v>3372845819.5419126</v>
+        <v>3318455939.1002641</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>144</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="M108" s="48">
         <f>M105</f>
-        <v>0.13058903851089818</v>
+        <v>0.13250116084497068</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="G110" s="37">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>934010104.88755488</v>
+        <v>893400334.6572746</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="G113" s="37">
         <f>G110+G111-G112</f>
-        <v>1743824104.8875551</v>
+        <v>1703214334.6572747</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="G115" s="56">
         <f>G113/G114</f>
-        <v>5.8886716224101248</v>
+        <v>5.7515376070714233</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>27.99</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-0.78961516175740887</v>
+        <v>-0.79966779494700724</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E405F9-06A9-B543-B2D1-29C62C9250B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D163204-E009-9443-BCA9-14A1D4729619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -558,7 +552,25 @@
     <t>Forward P/E</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -903,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -981,7 +993,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1029,6 +1040,11 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,11 +1315,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1343,7 +1359,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1433,6 +1449,7 @@
         <c:axId val="1890327136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-500000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2081,13 +2098,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2113,6 +2130,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,13 +2312,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>34.39</v>
+    <v>37.51</v>
     <v>16.600000000000001</v>
-    <v>2.5310000000000001</v>
-    <v>0.72</v>
-    <v>2.5722999999999999E-2</v>
-    <v>-0.18</v>
-    <v>-6.2700000000000004E-3</v>
+    <v>2.5779999999999998</v>
+    <v>-0.26</v>
+    <v>-7.4879999999999999E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2249,24 +2324,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>29.62</v>
+    <v>35.19</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.998694166403</v>
+    <v>45099.943715647656</v>
     <v>0</v>
-    <v>27.88</v>
-    <v>8501950000</v>
+    <v>32.26</v>
+    <v>10204708720</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>27.88</v>
-    <v>27.99</v>
-    <v>28.71</v>
-    <v>28.53</v>
+    <v>34.68</v>
+    <v>34.72</v>
+    <v>34.46</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>3265708</v>
-    <v>4407299</v>
+    <v>176</v>
+    <v>5345514</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2298,8 +2372,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2319,7 +2391,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2336,7 +2407,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2347,16 +2418,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2420,19 +2488,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2476,9 +2538,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2486,9 +2545,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2850,10 +2906,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2900,25 +2956,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2959,21 +3015,21 @@
         <v>1795000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3021,7 +3077,7 @@
         <v>0.74329472146449538</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>0.34330755541335539</v>
       </c>
       <c r="T4" s="16"/>
@@ -3076,16 +3132,16 @@
         <v>383529000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3117,7 +3173,7 @@
         <v>-0.77229999999999999</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-0.29318160097210655</v>
       </c>
     </row>
@@ -3140,7 +3196,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3161,16 +3217,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3240,24 +3296,24 @@
         <v>582162000</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3289,7 +3345,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24525679463638253</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="60">
         <f>E67/E72</f>
         <v>2.0473282502271024</v>
       </c>
@@ -3299,16 +3355,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3328,16 +3384,16 @@
         <v>846203000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3360,37 +3416,37 @@
         <f>(E35+D35+C35+B35)/4</f>
         <v>7.994672062666941E-2</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="58">
         <f>M101/E3</f>
-        <v>14.509833704244775</v>
-      </c>
-      <c r="M16" s="59">
+        <v>17.415843015714813</v>
+      </c>
+      <c r="M16" s="58">
         <f>M101/E28</f>
-        <v>-18.786722380460986</v>
-      </c>
-      <c r="N16" s="60">
-        <f>M101/E106</f>
-        <v>-49.490942324260132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>-22.549301006958331</v>
+      </c>
+      <c r="N16" s="59">
+        <f>M101/E107</f>
+        <v>-59.402919412298878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3407,16 +3463,19 @@
         <v>-1271000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3432,37 +3491,41 @@
       <c r="E19" s="10">
         <v>-447529000</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <v>-89920000</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="56">
         <v>23100000</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <v>90176000</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="56">
         <v>181700000</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="56">
         <v>309900000</v>
       </c>
       <c r="K19" s="30">
         <f>E40-E56-E61</f>
         <v>809814000</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="58">
         <f>M101/F3</f>
-        <v>11.144252195569537</v>
-      </c>
-      <c r="M19" s="62">
+        <v>13.376207523921877</v>
+      </c>
+      <c r="M19" s="61">
         <f>M101/F28</f>
-        <v>-167.78729450770658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-201.39150046377611</v>
+      </c>
+      <c r="N19" s="59">
+        <f>M101/F105</f>
+        <v>-22.872077398149038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3498,7 +3561,7 @@
         <v>0.70555861309851409</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3514,28 +3577,28 @@
       <c r="E21" s="2">
         <v>-0.76380000000000003</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <f>F19/F3</f>
         <v>-0.11786603748853061</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="57">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
         <v>2.3765432098765433E-2</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="57">
         <f t="shared" si="4"/>
         <v>7.2663980660757452E-2</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <f t="shared" si="4"/>
         <v>0.12268737339635381</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="57">
         <f t="shared" si="4"/>
         <v>0.17264623955431754</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3615,7 @@
         <v>-462674000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3632,7 @@
         <v>-0.78959999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3586,7 +3649,7 @@
         <v>16416000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3603,7 +3666,7 @@
         <v>-446258000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3620,7 +3683,7 @@
         <v>-0.76160000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +3700,7 @@
         <v>6293000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3653,25 +3716,25 @@
       <c r="E28" s="11">
         <v>-452551000</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="64">
         <v>-50671000</v>
       </c>
-      <c r="G28" s="11">
-        <v>44745000</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="G28" s="64">
+        <v>46291000</v>
+      </c>
+      <c r="H28" s="64">
         <v>98118000</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="64">
         <v>105800000</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="64">
         <v>196000000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3686,28 +3749,28 @@
         <f>(E28/D28)-1</f>
         <v>0.32015659230865712</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
         <v>-0.88803250904317965</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>-1.8830494760316552</v>
-      </c>
-      <c r="H29" s="15">
+        <v>-1.9135600244715913</v>
+      </c>
+      <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>1.1928260140797855</v>
-      </c>
-      <c r="I29" s="15">
+        <v>1.1195912812425743</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="5"/>
         <v>7.8293483356774551E-2</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="16">
         <f t="shared" si="5"/>
         <v>0.85255198487712658</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3723,28 +3786,28 @@
       <c r="E30" s="2">
         <v>-0.77229999999999999</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="57">
         <f>F28/F3</f>
         <v>-6.6418927775593134E-2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="57">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>4.603395061728395E-2</v>
-      </c>
-      <c r="H30" s="2">
+        <v>4.7624485596707816E-2</v>
+      </c>
+      <c r="H30" s="57">
         <f t="shared" si="6"/>
         <v>7.9063658340048346E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="57">
         <f t="shared" si="6"/>
         <v>7.1438217420661712E-2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="57">
         <f t="shared" si="6"/>
         <v>0.10919220055710306</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3760,8 +3823,23 @@
       <c r="E31" s="12">
         <v>-1.62</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="65">
+        <v>-0.17</v>
+      </c>
+      <c r="G31" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="H31" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="I31" s="65">
+        <v>0.36</v>
+      </c>
+      <c r="J31" s="65">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3814,7 +3892,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -3835,16 +3913,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3852,16 +3930,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3937,16 +4015,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4005,16 +4083,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4022,16 +4100,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4039,16 +4117,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4056,16 +4134,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4073,16 +4151,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4124,16 +4202,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4175,7 +4253,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>10492000</v>
@@ -4198,10 +4276,10 @@
         <v>6756000</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4260,10 +4338,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>1112346000</v>
@@ -4294,16 +4372,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4345,16 +4423,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4481,16 +4559,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4498,16 +4576,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4580,7 +4658,7 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:E80" si="8">B79/B3</f>
@@ -4638,21 +4716,21 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L83" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="M83" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="L83" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="70"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4670,10 +4748,10 @@
       <c r="E84" s="1">
         <v>13580000</v>
       </c>
-      <c r="L84" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="M84" s="70"/>
+      <c r="L84" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="72"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4689,10 +4767,10 @@
         <v>29361000</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M85" s="24">
         <f>E17</f>
@@ -4713,10 +4791,10 @@
         <v>55262000</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M86" s="24">
         <f>E56</f>
@@ -4740,7 +4818,7 @@
         <v>-157333000</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M87" s="24">
         <f>E61</f>
@@ -4764,7 +4842,7 @@
         <v>-4121000</v>
       </c>
       <c r="L88" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M88" s="32">
         <f>M85/(M86+M87)</f>
@@ -4773,7 +4851,7 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
@@ -4792,7 +4870,7 @@
         <v>7.0330953128626625E-3</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M89" s="24">
         <f>E27</f>
@@ -4804,16 +4882,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="23" t="s">
         <v>19</v>
@@ -4840,7 +4918,7 @@
         <v>-2051908000</v>
       </c>
       <c r="L91" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M91" s="32">
         <f>M89/M90</f>
@@ -4864,7 +4942,7 @@
         <v>1200558000</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M92" s="34">
         <f>M88*(1-M91)</f>
@@ -4887,10 +4965,10 @@
       <c r="E93" s="1">
         <v>-10334000</v>
       </c>
-      <c r="L93" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="M93" s="70"/>
+      <c r="L93" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="M93" s="72"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4909,10 +4987,11 @@
         <v>-865805000</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M94" s="35">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4920,23 +4999,23 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M95" s="36" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5310000000000001</v>
+        <v>2.5779999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4944,19 +5023,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>786600000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M96" s="35">
         <v>8.4000000000000005E-2</v>
@@ -4967,23 +5046,23 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M97" s="34">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14990955</v>
+        <v>0.15780306</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4991,21 +5070,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="M98" s="70"/>
+        <v>91</v>
+      </c>
+      <c r="L98" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="M98" s="72"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5024,7 +5103,7 @@
         <v>82241000</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M99" s="24">
         <f>M86+M87</f>
@@ -5048,11 +5127,11 @@
         <v>82241000</v>
       </c>
       <c r="L100" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M100" s="32">
         <f>M99/M103</f>
-        <v>0.11612595164903985</v>
+        <v>9.8660894954569672E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5072,11 +5151,11 @@
         <v>-4000</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M101" s="37" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8501950000</v>
+        <v>10204708720</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5096,11 +5175,11 @@
         <v>-940901000</v>
       </c>
       <c r="L102" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M102" s="32">
         <f>M101/M103</f>
-        <v>0.88387404835096017</v>
+        <v>0.90133910504543036</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5120,11 +5199,11 @@
         <v>1376682000</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M103" s="38">
         <f>M99+M101</f>
-        <v>9618961000</v>
+        <v>11321719720</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5143,93 +5222,99 @@
       <c r="E104" s="11">
         <v>435781000</v>
       </c>
-      <c r="L104" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="M104" s="70"/>
+      <c r="L104" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="M104" s="72"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.2082410155651242</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.31479580656694384</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.5068858441079982</v>
-      </c>
-      <c r="F105" s="63">
-        <v>-66692000</v>
-      </c>
-      <c r="G105" s="63">
-        <v>53165000</v>
-      </c>
-      <c r="H105" s="63">
-        <v>126200000</v>
-      </c>
-      <c r="I105" s="63">
-        <v>191000000</v>
-      </c>
-      <c r="J105" s="63">
-        <v>315000000</v>
-      </c>
-      <c r="K105" s="15"/>
+        <v>160</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-80854400</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-211759000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-249776000</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>-356461200</v>
+      </c>
+      <c r="F105" s="39">
+        <f>E105*(1+$M$106)</f>
+        <v>-446164488.79391402</v>
+      </c>
+      <c r="G105" s="39">
+        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
+        <v>-558441566.88227117</v>
+      </c>
+      <c r="H105" s="39">
+        <f t="shared" si="11"/>
+        <v>-698973117.43690717</v>
+      </c>
+      <c r="I105" s="39">
+        <f t="shared" si="11"/>
+        <v>-874869364.8058362</v>
+      </c>
+      <c r="J105" s="39">
+        <f t="shared" si="11"/>
+        <v>-1095029817.8597059</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>163</v>
+      </c>
       <c r="L105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M105" s="26">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13250116084497068</v>
+        <v>0.14223406887383033</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-71763000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-86707000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-114002000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-171788000</v>
-      </c>
-      <c r="F106" s="39">
-        <f>E106*(1+$M$106)</f>
-        <v>-215018367.21900982</v>
-      </c>
-      <c r="G106" s="39">
-        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
-        <v>-269127635.46655738</v>
-      </c>
-      <c r="H106" s="39">
-        <f t="shared" si="10"/>
-        <v>-336853474.93149722</v>
-      </c>
-      <c r="I106" s="39">
-        <f t="shared" si="10"/>
-        <v>-421622489.1832968</v>
-      </c>
-      <c r="J106" s="39">
-        <f t="shared" si="10"/>
-        <v>-527723584.92448312</v>
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.2082410155651242</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.31479580656694384</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.5068858441079982</v>
+      </c>
+      <c r="F106" s="62">
+        <v>-66680000</v>
+      </c>
+      <c r="G106" s="62">
+        <v>53091000</v>
+      </c>
+      <c r="H106" s="62">
+        <v>126500000</v>
+      </c>
+      <c r="I106" s="62">
+        <v>191000000</v>
+      </c>
+      <c r="J106" s="62">
+        <v>315000000</v>
       </c>
       <c r="K106" s="40" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L106" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M106" s="42">
         <f>(SUM(F4:J4)/5)</f>
@@ -5237,79 +5322,89 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-71763000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-86707000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-114002000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-171788000</v>
+      </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="64">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3003455939.1002641</v>
-      </c>
-      <c r="K107" s="44" t="s">
+      <c r="J107" s="63">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>2754105552.2647138</v>
+      </c>
+      <c r="K107" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M107" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="63">
+        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
+        <v>-66680000</v>
+      </c>
+      <c r="G108" s="63">
+        <f t="shared" si="12"/>
+        <v>53091000</v>
+      </c>
+      <c r="H108" s="63">
+        <f t="shared" si="12"/>
+        <v>126500000</v>
+      </c>
+      <c r="I108" s="63">
+        <f t="shared" si="12"/>
+        <v>191000000</v>
+      </c>
+      <c r="J108" s="63">
+        <f>J107+J106</f>
+        <v>3069105552.2647138</v>
+      </c>
+      <c r="K108" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="M108" s="47">
+        <f>M105</f>
+        <v>0.14223406887383033</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="45" t="s">
+      <c r="G109" s="68"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="48" t="s">
         <v>149</v>
-      </c>
-      <c r="M107" s="46">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="43">
-        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
-        <v>-215018367.21900982</v>
-      </c>
-      <c r="G108" s="43">
-        <f t="shared" si="11"/>
-        <v>-269127635.46655738</v>
-      </c>
-      <c r="H108" s="43">
-        <f t="shared" si="11"/>
-        <v>-336853474.93149722</v>
-      </c>
-      <c r="I108" s="43">
-        <f>I107+I106</f>
-        <v>-421622489.1832968</v>
-      </c>
-      <c r="J108" s="64">
-        <f>J107+J105</f>
-        <v>3318455939.1002641</v>
-      </c>
-      <c r="K108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="L108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="M108" s="48">
-        <f>M105</f>
-        <v>0.13250116084497068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="66"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="49" t="s">
-        <v>152</v>
       </c>
       <c r="G110" s="37">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>893400334.6572746</v>
+        <v>1757874189.3741443</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="49" t="s">
-        <v>153</v>
+      <c r="F111" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="G111" s="37">
         <f>E40</f>
@@ -5317,8 +5412,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="49" t="s">
-        <v>140</v>
+      <c r="F112" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="G112" s="37">
         <f>M99</f>
@@ -5326,55 +5421,55 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="49" t="s">
-        <v>154</v>
+      <c r="F113" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="G113" s="37">
         <f>G110+G111-G112</f>
-        <v>1703214334.6572747</v>
+        <v>2567688189.3741446</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G114" s="50" cm="1">
-        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>296132000</v>
+      <c r="F114" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G114" s="49">
+        <f>E34*(1+(5*0.05))</f>
+        <v>350100446.25</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="51" t="s">
+      <c r="F115" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="55">
+        <f>G113/G114</f>
+        <v>7.3341471479890883</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="51" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>34.46</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="53">
+        <f>G115/G116-1</f>
+        <v>-0.78716926442283552</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G115" s="56">
-        <f>G113/G114</f>
-        <v>5.7515376070714233</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G116" s="52" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>28.71</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="54">
-        <f>G115/G116-1</f>
-        <v>-0.79966779494700724</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="55" t="str">
+      <c r="G118" s="54" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5399,8 +5494,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:CFLT/explorer/revenue_proj" xr:uid="{419D14A5-A902-414D-808B-A02D26FA45E5}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{CB0A6B2F-3D78-504E-B56E-C6DAD56D2113}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D163204-E009-9443-BCA9-14A1D4729619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C146833-6D57-4344-AE1B-E9A25327E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -571,19 +571,26 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -915,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1062,6 +1069,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2150,12 +2163,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2172,14 +2186,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2187,6 +2201,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2314,9 +2329,11 @@
     <v>Powered by Refinitiv</v>
     <v>37.51</v>
     <v>16.600000000000001</v>
-    <v>2.5779999999999998</v>
-    <v>-0.26</v>
-    <v>-7.4879999999999999E-3</v>
+    <v>2.5329999999999999</v>
+    <v>-0.4</v>
+    <v>-1.2074E-2</v>
+    <v>-0.01</v>
+    <v>-3.055E-4</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2324,23 +2341,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>35.19</v>
+    <v>33.92</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.943715647656</v>
+    <v>45103.931555474221</v>
     <v>0</v>
-    <v>32.26</v>
-    <v>10204708720</v>
+    <v>32.590000000000003</v>
+    <v>9692400360</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>34.68</v>
-    <v>34.72</v>
-    <v>34.46</v>
+    <v>32.76</v>
+    <v>33.130000000000003</v>
+    <v>32.729999999999997</v>
+    <v>32.72</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>176</v>
-    <v>5345514</v>
+    <v>2949968</v>
+    <v>5554431</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2372,6 +2390,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2391,6 +2411,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2407,7 +2428,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2418,13 +2439,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2488,13 +2512,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2538,6 +2568,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2545,6 +2578,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2906,10 +2942,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3418,15 +3454,15 @@
       </c>
       <c r="L16" s="58">
         <f>M101/E3</f>
-        <v>17.415843015714813</v>
+        <v>16.541513113881191</v>
       </c>
       <c r="M16" s="58">
         <f>M101/E28</f>
-        <v>-22.549301006958331</v>
+        <v>-21.417255425355375</v>
       </c>
       <c r="N16" s="59">
         <f>M101/E107</f>
-        <v>-59.402919412298878</v>
+        <v>-56.42070668498382</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3512,15 +3548,15 @@
       </c>
       <c r="L19" s="58">
         <f>M101/F3</f>
-        <v>13.376207523921877</v>
+        <v>12.704679984270546</v>
       </c>
       <c r="M19" s="61">
         <f>M101/F28</f>
-        <v>-201.39150046377611</v>
+        <v>-191.28101596573978</v>
       </c>
       <c r="N19" s="59">
         <f>M101/F105</f>
-        <v>-22.872077398149038</v>
+        <v>-21.72382743010499</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,7 +3597,7 @@
         <v>0.70555861309851409</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3597,6 +3633,12 @@
         <f t="shared" si="4"/>
         <v>0.17264623955431754</v>
       </c>
+      <c r="M21" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3613,6 +3655,14 @@
       </c>
       <c r="E22" s="10">
         <v>-462674000</v>
+      </c>
+      <c r="M22" s="73">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="74">
+        <f>E107/M101</f>
+        <v>-1.7723989271941302E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4991,7 +5041,7 @@
       </c>
       <c r="M94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5015,7 +5065,7 @@
       </c>
       <c r="M95" s="36" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5779999999999998</v>
+        <v>2.5329999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5062,7 +5112,7 @@
       </c>
       <c r="M97" s="34">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15780306</v>
+        <v>0.15545313000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5078,8 +5128,8 @@
       <c r="D98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>91</v>
+      <c r="E98" s="1">
+        <v>0</v>
       </c>
       <c r="L98" s="71" t="s">
         <v>137</v>
@@ -5131,7 +5181,7 @@
       </c>
       <c r="M100" s="32">
         <f>M99/M103</f>
-        <v>9.8660894954569672E-2</v>
+        <v>0.10333689437830776</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5155,7 +5205,7 @@
       </c>
       <c r="M101" s="37" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10204708720</v>
+        <v>9692400360</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5179,7 +5229,7 @@
       </c>
       <c r="M102" s="32">
         <f>M101/M103</f>
-        <v>0.90133910504543036</v>
+        <v>0.89666310562169227</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5203,7 +5253,7 @@
       </c>
       <c r="M103" s="38">
         <f>M99+M101</f>
-        <v>11321719720</v>
+        <v>10809411360</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5325,7 @@
       </c>
       <c r="M105" s="26">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.14223406887383033</v>
+        <v>0.13938908632441269</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5343,7 +5393,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="63">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2754105552.2647138</v>
+        <v>2822603190.345552</v>
       </c>
       <c r="K107" s="43" t="s">
         <v>145</v>
@@ -5374,7 +5424,7 @@
       </c>
       <c r="J108" s="63">
         <f>J107+J106</f>
-        <v>3069105552.2647138</v>
+        <v>3137603190.345552</v>
       </c>
       <c r="K108" s="43" t="s">
         <v>142</v>
@@ -5384,7 +5434,7 @@
       </c>
       <c r="M108" s="47">
         <f>M105</f>
-        <v>0.14223406887383033</v>
+        <v>0.13938908632441269</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5399,7 +5449,7 @@
       </c>
       <c r="G110" s="37">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1757874189.3741443</v>
+        <v>1815170569.2001376</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5426,7 +5476,7 @@
       </c>
       <c r="G113" s="37">
         <f>G110+G111-G112</f>
-        <v>2567688189.3741446</v>
+        <v>2624984569.2001376</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5444,7 +5494,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>7.3341471479890883</v>
+        <v>7.4978041225508365</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5453,7 +5503,7 @@
       </c>
       <c r="G116" s="51" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>34.46</v>
+        <v>32.729999999999997</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5462,7 +5512,7 @@
       </c>
       <c r="G117" s="53">
         <f>G115/G116-1</f>
-        <v>-0.78716926442283552</v>
+        <v>-0.77091951962875538</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C146833-6D57-4344-AE1B-E9A25327E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23853B-0585-C941-9D4C-94B871E4BBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -753,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -859,62 +859,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -922,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -964,76 +911,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,29 +945,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,7 +1054,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CFLT</a:t>
+              <a:t>Confluent</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1165,10 +1093,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0062757857747127E-2"/>
-          <c:y val="0.10777817679871887"/>
-          <c:w val="0.87572236610919507"/>
-          <c:h val="0.78318604181134999"/>
+          <c:x val="7.7996642155267776E-2"/>
+          <c:y val="0.14547301406968907"/>
+          <c:w val="0.86778848181167423"/>
+          <c:h val="0.73389282707049819"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2116,8 +2044,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2189,7 +2117,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2329,11 +2257,11 @@
     <v>Powered by Refinitiv</v>
     <v>37.51</v>
     <v>16.600000000000001</v>
-    <v>2.5329999999999999</v>
-    <v>-0.4</v>
-    <v>-1.2074E-2</v>
-    <v>-0.01</v>
-    <v>-3.055E-4</v>
+    <v>2.536</v>
+    <v>0.97</v>
+    <v>2.8247000000000001E-2</v>
+    <v>-0.15</v>
+    <v>-4.248E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2341,24 +2269,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>33.92</v>
+    <v>35.871000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.931555474221</v>
+    <v>45107.992738657034</v>
     <v>0</v>
-    <v>32.590000000000003</v>
-    <v>9692400360</v>
+    <v>34.78</v>
+    <v>10456420920</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>32.76</v>
-    <v>33.130000000000003</v>
-    <v>32.729999999999997</v>
-    <v>32.72</v>
+    <v>35.020000000000003</v>
+    <v>34.340000000000003</v>
+    <v>35.31</v>
+    <v>35.159999999999997</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>2949968</v>
-    <v>5554431</v>
+    <v>3834330</v>
+    <v>5330763</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2520,9 +2448,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2942,10 +2870,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2971,19 +2899,19 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="23">
         <v>2023</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="23">
         <v>2024</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="23">
         <v>2025</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="23">
         <v>2026</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3035,19 +2963,19 @@
       <c r="E3" s="1">
         <v>585944000</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="24">
         <v>762900000</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <v>972000000</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="24">
         <v>1241000000</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <v>1481000000</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <v>1795000000</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -3381,7 +3309,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24525679463638253</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="34">
         <f>E67/E72</f>
         <v>2.0473282502271024</v>
       </c>
@@ -3448,21 +3376,21 @@
       <c r="E16" s="1">
         <v>1048618000</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="25">
         <f>(E35+D35+C35+B35)/4</f>
         <v>7.994672062666941E-2</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>16.541513113881191</v>
-      </c>
-      <c r="M16" s="58">
+        <v>17.84542707152902</v>
+      </c>
+      <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-21.417255425355375</v>
-      </c>
-      <c r="N16" s="59">
+        <v>-23.105508373641864</v>
+      </c>
+      <c r="N16" s="33">
         <f>M101/E107</f>
-        <v>-56.42070668498382</v>
+        <v>-60.868168440170443</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3527,36 +3455,36 @@
       <c r="E19" s="10">
         <v>-447529000</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="30">
         <v>-89920000</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="30">
         <v>23100000</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="30">
         <v>90176000</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="30">
         <v>181700000</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="30">
         <v>309900000</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="26">
         <f>E40-E56-E61</f>
         <v>809814000</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>12.704679984270546</v>
-      </c>
-      <c r="M19" s="61">
+        <v>13.706148800629178</v>
+      </c>
+      <c r="M19" s="35">
         <f>M101/F28</f>
-        <v>-191.28101596573978</v>
-      </c>
-      <c r="N19" s="59">
+        <v>-206.35907955240671</v>
+      </c>
+      <c r="N19" s="33">
         <f>M101/F105</f>
-        <v>-21.72382743010499</v>
+        <v>-23.436246457592642</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,23 +3541,23 @@
       <c r="E21" s="2">
         <v>-0.76380000000000003</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="31">
         <f>F19/F3</f>
         <v>-0.11786603748853061</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="31">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
         <v>2.3765432098765433E-2</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="31">
         <f t="shared" si="4"/>
         <v>7.2663980660757452E-2</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="31">
         <f t="shared" si="4"/>
         <v>0.12268737339635381</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="31">
         <f t="shared" si="4"/>
         <v>0.17264623955431754</v>
       </c>
@@ -3656,13 +3584,13 @@
       <c r="E22" s="10">
         <v>-462674000</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
         <v>0</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.7723989271941302E-2</v>
+        <v>-1.6428948424543722E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3766,19 +3694,19 @@
       <c r="E28" s="11">
         <v>-452551000</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="38">
         <v>-50671000</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="38">
         <v>46291000</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="38">
         <v>98118000</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="38">
         <v>105800000</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="38">
         <v>196000000</v>
       </c>
     </row>
@@ -3836,23 +3764,23 @@
       <c r="E30" s="2">
         <v>-0.77229999999999999</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="31">
         <f>F28/F3</f>
         <v>-6.6418927775593134E-2</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="31">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
         <v>4.7624485596707816E-2</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="31">
         <f t="shared" si="6"/>
         <v>7.9063658340048346E-2</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="31">
         <f t="shared" si="6"/>
         <v>7.1438217420661712E-2</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="31">
         <f t="shared" si="6"/>
         <v>0.10919220055710306</v>
       </c>
@@ -3873,19 +3801,19 @@
       <c r="E31" s="12">
         <v>-1.62</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="39">
         <v>-0.17</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="39">
         <v>0.16</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="39">
         <v>0.33</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="39">
         <v>0.36</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="39">
         <v>0.66</v>
       </c>
     </row>
@@ -4777,10 +4705,10 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4798,10 +4726,10 @@
       <c r="E84" s="1">
         <v>13580000</v>
       </c>
-      <c r="L84" s="71" t="s">
+      <c r="L84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="72"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4819,10 +4747,10 @@
       <c r="E85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="23" t="s">
+      <c r="L85" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="24">
+      <c r="M85" s="44">
         <f>E17</f>
         <v>0</v>
       </c>
@@ -4843,10 +4771,10 @@
       <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="23" t="s">
+      <c r="L86" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M86" s="24">
+      <c r="M86" s="44">
         <f>E56</f>
         <v>7375000</v>
       </c>
@@ -4867,10 +4795,10 @@
       <c r="E87" s="10">
         <v>-157333000</v>
       </c>
-      <c r="L87" s="23" t="s">
+      <c r="L87" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="M87" s="24">
+      <c r="M87" s="44">
         <f>E61</f>
         <v>1109636000</v>
       </c>
@@ -4891,10 +4819,10 @@
       <c r="E88" s="1">
         <v>-4121000</v>
       </c>
-      <c r="L88" s="31" t="s">
+      <c r="L88" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="M88" s="32">
+      <c r="M88" s="46">
         <f>M85/(M86+M87)</f>
         <v>0</v>
       </c>
@@ -4919,10 +4847,10 @@
         <f t="shared" si="9"/>
         <v>7.0330953128626625E-3</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M89" s="24">
+      <c r="M89" s="44">
         <f>E27</f>
         <v>6293000</v>
       </c>
@@ -4943,10 +4871,10 @@
       <c r="E90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L90" s="23" t="s">
+      <c r="L90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="24">
+      <c r="M90" s="44">
         <f>E25</f>
         <v>-446258000</v>
       </c>
@@ -4967,10 +4895,10 @@
       <c r="E91" s="1">
         <v>-2051908000</v>
       </c>
-      <c r="L91" s="31" t="s">
+      <c r="L91" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="M91" s="32">
+      <c r="M91" s="46">
         <f>M89/M90</f>
         <v>-1.4101707980585222E-2</v>
       </c>
@@ -4991,10 +4919,10 @@
       <c r="E92" s="1">
         <v>1200558000</v>
       </c>
-      <c r="L92" s="33" t="s">
+      <c r="L92" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="M92" s="34">
+      <c r="M92" s="46">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -5015,10 +4943,10 @@
       <c r="E93" s="1">
         <v>-10334000</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="M93" s="72"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5036,12 +4964,12 @@
       <c r="E94" s="10">
         <v>-865805000</v>
       </c>
-      <c r="L94" s="23" t="s">
+      <c r="L94" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="M94" s="35">
+      <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5060,12 +4988,12 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="23" t="s">
+      <c r="L95" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="M95" s="36" cm="1">
+      <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5329999999999999</v>
+        <v>2.536</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5084,10 +5012,10 @@
       <c r="E96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L96" s="23" t="s">
+      <c r="L96" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="M96" s="35">
+      <c r="M96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5107,12 +5035,12 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="33" t="s">
+      <c r="L97" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="M97" s="34">
+      <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15545313000000002</v>
+        <v>0.15382656000000003</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5131,10 +5059,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="71" t="s">
+      <c r="L98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="M98" s="72"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5152,10 +5080,10 @@
       <c r="E99" s="1">
         <v>82241000</v>
       </c>
-      <c r="L99" s="23" t="s">
+      <c r="L99" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="M99" s="24">
+      <c r="M99" s="44">
         <f>M86+M87</f>
         <v>1117011000</v>
       </c>
@@ -5176,12 +5104,12 @@
       <c r="E100" s="10">
         <v>82241000</v>
       </c>
-      <c r="L100" s="31" t="s">
+      <c r="L100" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="32">
+      <c r="M100" s="46">
         <f>M99/M103</f>
-        <v>0.10333689437830776</v>
+        <v>9.6515105261879827E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5200,12 +5128,12 @@
       <c r="E101" s="1">
         <v>-4000</v>
       </c>
-      <c r="L101" s="23" t="s">
+      <c r="L101" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="M101" s="37" cm="1">
+      <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9692400360</v>
+        <v>10456420920</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5224,12 +5152,12 @@
       <c r="E102" s="10">
         <v>-940901000</v>
       </c>
-      <c r="L102" s="31" t="s">
+      <c r="L102" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M102" s="32">
+      <c r="M102" s="46">
         <f>M101/M103</f>
-        <v>0.89666310562169227</v>
+        <v>0.90348489473812021</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5248,12 +5176,12 @@
       <c r="E103" s="1">
         <v>1376682000</v>
       </c>
-      <c r="L103" s="33" t="s">
+      <c r="L103" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="M103" s="38">
+      <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>10809411360</v>
+        <v>11573431920</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5272,10 +5200,10 @@
       <c r="E104" s="11">
         <v>435781000</v>
       </c>
-      <c r="L104" s="71" t="s">
+      <c r="L104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="M104" s="72"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5297,35 +5225,35 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>-356461200</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="27">
         <f>E105*(1+$M$106)</f>
         <v>-446164488.79391402</v>
       </c>
-      <c r="G105" s="39">
+      <c r="G105" s="27">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
         <v>-558441566.88227117</v>
       </c>
-      <c r="H105" s="39">
+      <c r="H105" s="27">
         <f t="shared" si="11"/>
         <v>-698973117.43690717</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="27">
         <f t="shared" si="11"/>
         <v>-874869364.8058362</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="27">
         <f t="shared" si="11"/>
         <v>-1095029817.8597059</v>
       </c>
-      <c r="K105" s="40" t="s">
+      <c r="K105" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="L105" s="25" t="s">
+      <c r="L105" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="M105" s="26">
+      <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13938908632441269</v>
+        <v>0.13897997336952717</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5345,34 +5273,34 @@
         <f>(E107/D107)-1</f>
         <v>0.5068858441079982</v>
       </c>
-      <c r="F106" s="62">
+      <c r="F106" s="36">
         <v>-66680000</v>
       </c>
-      <c r="G106" s="62">
+      <c r="G106" s="36">
         <v>53091000</v>
       </c>
-      <c r="H106" s="62">
+      <c r="H106" s="36">
         <v>126500000</v>
       </c>
-      <c r="I106" s="62">
+      <c r="I106" s="36">
         <v>191000000</v>
       </c>
-      <c r="J106" s="62">
+      <c r="J106" s="36">
         <v>315000000</v>
       </c>
-      <c r="K106" s="40" t="s">
+      <c r="K106" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="L106" s="41" t="s">
+      <c r="L106" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="M106" s="42">
+      <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
         <v>0.2516495169570041</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="40" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -5387,139 +5315,139 @@
       <c r="E107" s="1">
         <v>-171788000</v>
       </c>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="63">
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="37">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2822603190.345552</v>
-      </c>
-      <c r="K107" s="43" t="s">
+        <v>2832734474.7943363</v>
+      </c>
+      <c r="K107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="44" t="s">
+      <c r="L107" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="45">
+      <c r="M107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="63">
+      <c r="F108" s="37">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
         <v>-66680000</v>
       </c>
-      <c r="G108" s="63">
+      <c r="G108" s="37">
         <f t="shared" si="12"/>
         <v>53091000</v>
       </c>
-      <c r="H108" s="63">
+      <c r="H108" s="37">
         <f t="shared" si="12"/>
         <v>126500000</v>
       </c>
-      <c r="I108" s="63">
+      <c r="I108" s="37">
         <f t="shared" si="12"/>
         <v>191000000</v>
       </c>
-      <c r="J108" s="63">
+      <c r="J108" s="37">
         <f>J107+J106</f>
-        <v>3137603190.345552</v>
-      </c>
-      <c r="K108" s="43" t="s">
+        <v>3147734474.7943363</v>
+      </c>
+      <c r="K108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L108" s="46" t="s">
+      <c r="L108" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="47">
+      <c r="M108" s="54">
         <f>M105</f>
-        <v>0.13938908632441269</v>
+        <v>0.13897997336952717</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="68"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="48" t="s">
+      <c r="F110" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="37">
+      <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1815170569.2001376</v>
+        <v>1823656127.9384632</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="37">
+      <c r="G111" s="49">
         <f>E40</f>
         <v>1926825000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="49">
         <f>M99</f>
         <v>1117011000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="48" t="s">
+      <c r="F113" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="37">
+      <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>2624984569.2001376</v>
+        <v>2633470127.9384632</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="58">
         <f>E34*(1+(5*0.05))</f>
         <v>350100446.25</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="55">
+      <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>7.4978041225508365</v>
+        <v>7.5220416201867755</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="51" cm="1">
+      <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>32.729999999999997</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="52" t="s">
+      <c r="F117" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="53">
+      <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.77091951962875538</v>
+        <v>-0.78697135032039722</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="52" t="s">
+      <c r="F118" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="54" t="str">
+      <c r="G118" s="63" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23853B-0585-C941-9D4C-94B871E4BBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEEDFE-86B0-124F-9527-BBE1F64C5972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2082,7 +2082,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2096,10 +2095,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2113,14 +2114,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2130,6 +2131,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2257,11 +2259,11 @@
     <v>Powered by Refinitiv</v>
     <v>37.51</v>
     <v>16.600000000000001</v>
-    <v>2.536</v>
-    <v>0.97</v>
-    <v>2.8247000000000001E-2</v>
-    <v>-0.15</v>
-    <v>-4.248E-3</v>
+    <v>2.5409999999999999</v>
+    <v>0.02</v>
+    <v>5.9239999999999998E-4</v>
+    <v>-0.19</v>
+    <v>-5.6249999999999998E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2269,24 +2271,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>35.871000000000002</v>
+    <v>34.69</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.992738657034</v>
+    <v>45114.999600751566</v>
     <v>0</v>
-    <v>34.78</v>
-    <v>10456420920</v>
+    <v>33.6</v>
+    <v>10003340000</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>35.020000000000003</v>
-    <v>34.340000000000003</v>
-    <v>35.31</v>
-    <v>35.159999999999997</v>
+    <v>33.83</v>
+    <v>33.76</v>
+    <v>33.78</v>
+    <v>33.590000000000003</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>3834330</v>
-    <v>5330763</v>
+    <v>2178025</v>
+    <v>5120734</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2870,10 +2872,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3382,15 +3384,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>17.84542707152902</v>
+        <v>17.072177545977091</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-23.105508373641864</v>
+        <v>-22.104337411695035</v>
       </c>
       <c r="N16" s="33">
         <f>M101/E107</f>
-        <v>-60.868168440170443</v>
+        <v>-58.230726243975134</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3476,15 +3478,15 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>13.706148800629178</v>
+        <v>13.112255865775332</v>
       </c>
       <c r="M19" s="35">
         <f>M101/F28</f>
-        <v>-206.35907955240671</v>
+        <v>-197.41745771743206</v>
       </c>
       <c r="N19" s="33">
         <f>M101/F105</f>
-        <v>-23.436246457592642</v>
+        <v>-22.420744481573031</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3592,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.6428948424543722E-2</v>
+        <v>-1.7173064196558351E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4969,7 +4971,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4993,7 +4995,7 @@
       </c>
       <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.536</v>
+        <v>2.5409999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5040,7 +5042,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15382656000000003</v>
+        <v>0.15117219000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5109,7 +5111,7 @@
       </c>
       <c r="M100" s="46">
         <f>M99/M103</f>
-        <v>9.6515105261879827E-2</v>
+        <v>0.1004474588976553</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5133,7 +5135,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10456420920</v>
+        <v>10003340000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5157,7 +5159,7 @@
       </c>
       <c r="M102" s="46">
         <f>M101/M103</f>
-        <v>0.90348489473812021</v>
+        <v>0.89955254110234473</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5181,7 +5183,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>11573431920</v>
+        <v>11120351000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5253,7 +5255,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13897997336952717</v>
+        <v>0.13598732765850649</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5321,7 +5323,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="37">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2832734474.7943363</v>
+        <v>2909115903.6952777</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>145</v>
@@ -5352,7 +5354,7 @@
       </c>
       <c r="J108" s="37">
         <f>J107+J106</f>
-        <v>3147734474.7943363</v>
+        <v>3224115903.6952777</v>
       </c>
       <c r="K108" s="29" t="s">
         <v>142</v>
@@ -5362,7 +5364,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.13897997336952717</v>
+        <v>0.13598732765850649</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5377,7 +5379,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1823656127.9384632</v>
+        <v>1887717532.7935901</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5404,7 +5406,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>2633470127.9384632</v>
+        <v>2697531532.7935901</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5422,7 +5424,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>7.5220416201867755</v>
+        <v>7.705021692166981</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5431,7 +5433,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>35.31</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5440,7 +5442,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.78697135032039722</v>
+        <v>-0.77190581136272995</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEEDFE-86B0-124F-9527-BBE1F64C5972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769AF6F-B7B0-EE47-9A72-ABA5E65388C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -570,13 +570,13 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2044,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2080,8 +2080,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2090,21 +2089,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2114,24 +2114,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2260,10 +2248,8 @@
     <v>37.51</v>
     <v>16.600000000000001</v>
     <v>2.5409999999999999</v>
-    <v>0.02</v>
-    <v>5.9239999999999998E-4</v>
-    <v>-0.19</v>
-    <v>-5.6249999999999998E-3</v>
+    <v>1.25</v>
+    <v>3.7004000000000002E-2</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2271,24 +2257,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>34.69</v>
+    <v>35.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999600751566</v>
+    <v>45117.995422615626</v>
     <v>0</v>
-    <v>33.6</v>
-    <v>10003340000</v>
+    <v>32.86</v>
+    <v>10373503960</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>33.83</v>
     <v>33.76</v>
     <v>33.78</v>
-    <v>33.590000000000003</v>
+    <v>35.03</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>2178025</v>
-    <v>5120734</v>
+    <v>1</v>
+    <v>4988268</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2320,8 +2305,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2341,7 +2324,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2358,7 +2340,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2369,16 +2351,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2442,19 +2421,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2498,9 +2471,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2508,9 +2478,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2872,10 +2839,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2969,10 +2936,10 @@
         <v>762900000</v>
       </c>
       <c r="G3" s="24">
-        <v>972000000</v>
+        <v>979400000</v>
       </c>
       <c r="H3" s="24">
-        <v>1241000000</v>
+        <v>1248000000</v>
       </c>
       <c r="I3" s="24">
         <v>1481000000</v>
@@ -3016,15 +2983,15 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27408572552103805</v>
+        <v>0.28378555511862635</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27674897119341568</v>
+        <v>0.27424954053502137</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19339242546333613</v>
+        <v>0.18669871794871784</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
@@ -3384,15 +3351,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>17.072177545977091</v>
+        <v>17.703917029613752</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-22.104337411695035</v>
+        <v>-22.922287123440231</v>
       </c>
       <c r="N16" s="33">
         <f>M101/E107</f>
-        <v>-58.230726243975134</v>
+        <v>-60.38549817216569</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3461,16 +3428,16 @@
         <v>-89920000</v>
       </c>
       <c r="G19" s="30">
-        <v>23100000</v>
+        <v>54000000</v>
       </c>
       <c r="H19" s="30">
-        <v>90176000</v>
+        <v>124000000</v>
       </c>
       <c r="I19" s="30">
-        <v>181700000</v>
+        <v>184000000</v>
       </c>
       <c r="J19" s="30">
-        <v>309900000</v>
+        <v>313000000</v>
       </c>
       <c r="K19" s="26">
         <f>E40-E56-E61</f>
@@ -3478,15 +3445,15 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>13.112255865775332</v>
+        <v>13.597462262419715</v>
       </c>
       <c r="M19" s="35">
         <f>M101/F28</f>
-        <v>-197.41745771743206</v>
+        <v>-211.70416244897959</v>
       </c>
       <c r="N19" s="33">
         <f>M101/F105</f>
-        <v>-22.420744481573031</v>
+        <v>-23.248520243887302</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,19 +3479,19 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>-1.2568950177935942</v>
+        <v>-1.6005338078291815</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>2.9037229437229439</v>
+        <v>1.2962962962962963</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>1.0149485450674236</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="3"/>
-        <v>0.70555861309851409</v>
+        <v>0.70108695652173902</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3549,25 +3516,25 @@
       </c>
       <c r="G21" s="31">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>2.3765432098765433E-2</v>
+        <v>5.5135797426996119E-2</v>
       </c>
       <c r="H21" s="31">
         <f t="shared" si="4"/>
-        <v>7.2663980660757452E-2</v>
+        <v>9.9358974358974353E-2</v>
       </c>
       <c r="I21" s="31">
         <f t="shared" si="4"/>
-        <v>0.12268737339635381</v>
+        <v>0.12424037812288993</v>
       </c>
       <c r="J21" s="31">
         <f t="shared" si="4"/>
-        <v>0.17264623955431754</v>
+        <v>0.17437325905292478</v>
       </c>
       <c r="M21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3592,7 +3559,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.7173064196558351E-2</v>
+        <v>-1.6560267452773017E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3697,19 +3664,19 @@
         <v>-452551000</v>
       </c>
       <c r="F28" s="38">
-        <v>-50671000</v>
+        <v>-49000000</v>
       </c>
       <c r="G28" s="38">
-        <v>46291000</v>
+        <v>27000000</v>
       </c>
       <c r="H28" s="38">
-        <v>98118000</v>
+        <v>119000000</v>
       </c>
       <c r="I28" s="38">
-        <v>105800000</v>
+        <v>155000000</v>
       </c>
       <c r="J28" s="38">
-        <v>196000000</v>
+        <v>213000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3731,23 +3698,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-0.88803250904317965</v>
+        <v>-0.89172491056256642</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>-1.9135600244715913</v>
+        <v>-1.5510204081632653</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>1.1195912812425743</v>
+        <v>3.4074074074074074</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>7.8293483356774551E-2</v>
+        <v>0.30252100840336138</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>0.85255198487712658</v>
+        <v>0.37419354838709684</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3768,23 +3735,23 @@
       </c>
       <c r="F30" s="31">
         <f>F28/F3</f>
-        <v>-6.6418927775593134E-2</v>
+        <v>-6.422860138943505E-2</v>
       </c>
       <c r="G30" s="31">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>4.7624485596707816E-2</v>
+        <v>2.756789871349806E-2</v>
       </c>
       <c r="H30" s="31">
         <f t="shared" si="6"/>
-        <v>7.9063658340048346E-2</v>
+        <v>9.5352564102564097E-2</v>
       </c>
       <c r="I30" s="31">
         <f t="shared" si="6"/>
-        <v>7.1438217420661712E-2</v>
+        <v>0.10465901417960838</v>
       </c>
       <c r="J30" s="31">
         <f t="shared" si="6"/>
-        <v>0.10919220055710306</v>
+        <v>0.11866295264623955</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3807,16 +3774,16 @@
         <v>-0.17</v>
       </c>
       <c r="G31" s="39">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H31" s="39">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I31" s="39">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J31" s="39">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4971,7 +4938,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5042,7 +5009,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15117219000000001</v>
+        <v>0.15106432</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5111,7 +5078,7 @@
       </c>
       <c r="M100" s="46">
         <f>M99/M103</f>
-        <v>0.1004474588976553</v>
+        <v>9.7211570054820243E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5135,7 +5102,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10003340000</v>
+        <v>10373503960</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5159,7 +5126,7 @@
       </c>
       <c r="M102" s="46">
         <f>M101/M103</f>
-        <v>0.89955254110234473</v>
+        <v>0.90278842994517972</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5183,7 +5150,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>11120351000</v>
+        <v>11490514960</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5229,23 +5196,23 @@
       </c>
       <c r="F105" s="27">
         <f>E105*(1+$M$106)</f>
-        <v>-446164488.79391402</v>
+        <v>-446200611.9605608</v>
       </c>
       <c r="G105" s="27">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>-558441566.88227117</v>
+        <v>-558531997.6310997</v>
       </c>
       <c r="H105" s="27">
         <f t="shared" si="11"/>
-        <v>-698973117.43690717</v>
+        <v>-699142905.71470666</v>
       </c>
       <c r="I105" s="27">
         <f t="shared" si="11"/>
-        <v>-874869364.8058362</v>
+        <v>-875152730.16470456</v>
       </c>
       <c r="J105" s="27">
         <f t="shared" si="11"/>
-        <v>-1095029817.8597059</v>
+        <v>-1095473178.4509695</v>
       </c>
       <c r="K105" s="28" t="s">
         <v>163</v>
@@ -5255,7 +5222,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13598732765850649</v>
+        <v>0.13637912027353621</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5276,19 +5243,19 @@
         <v>0.5068858441079982</v>
       </c>
       <c r="F106" s="36">
-        <v>-66680000</v>
+        <v>-65000000</v>
       </c>
       <c r="G106" s="36">
-        <v>53091000</v>
+        <v>58000000</v>
       </c>
       <c r="H106" s="36">
-        <v>126500000</v>
+        <v>152000000</v>
       </c>
       <c r="I106" s="36">
-        <v>191000000</v>
+        <v>192000000</v>
       </c>
       <c r="J106" s="36">
-        <v>315000000</v>
+        <v>318000000</v>
       </c>
       <c r="K106" s="28" t="s">
         <v>164</v>
@@ -5298,7 +5265,7 @@
       </c>
       <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.2516495169570041</v>
+        <v>0.25175085524191926</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5323,7 +5290,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="37">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2909115903.6952777</v>
+        <v>2926491062.2340946</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>145</v>
@@ -5338,23 +5305,23 @@
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F108" s="37">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>-66680000</v>
+        <v>-65000000</v>
       </c>
       <c r="G108" s="37">
         <f t="shared" si="12"/>
-        <v>53091000</v>
+        <v>58000000</v>
       </c>
       <c r="H108" s="37">
         <f t="shared" si="12"/>
-        <v>126500000</v>
+        <v>152000000</v>
       </c>
       <c r="I108" s="37">
         <f t="shared" si="12"/>
-        <v>191000000</v>
+        <v>192000000</v>
       </c>
       <c r="J108" s="37">
         <f>J107+J106</f>
-        <v>3224115903.6952777</v>
+        <v>3244491062.2340946</v>
       </c>
       <c r="K108" s="29" t="s">
         <v>142</v>
@@ -5364,7 +5331,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.13598732765850649</v>
+        <v>0.13637912027353621</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5379,7 +5346,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1887717532.7935901</v>
+        <v>1918534338.7960062</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5406,16 +5373,16 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>2697531532.7935901</v>
+        <v>2728348338.7960062</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F114" s="58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G114" s="58">
-        <f>E34*(1+(5*0.05))</f>
-        <v>350100446.25</v>
+        <f>E34*(1+(5*0))</f>
+        <v>280080357</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5424,7 +5391,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>7.705021692166981</v>
+        <v>9.7413055596612441</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5433,7 +5400,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>33.78</v>
+        <v>35.03</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5442,7 +5409,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.77190581136272995</v>
+        <v>-0.72191534228771781</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769AF6F-B7B0-EE47-9A72-ABA5E65388C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE7E32-729C-2A42-B2F4-4B0B171976D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2090,6 +2090,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2101,7 +2102,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2120,6 +2121,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2245,11 +2247,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>37.51</v>
+    <v>41.223500000000001</v>
     <v>16.600000000000001</v>
-    <v>2.5409999999999999</v>
-    <v>1.25</v>
-    <v>3.7004000000000002E-2</v>
+    <v>2.5449999999999999</v>
+    <v>0.77</v>
+    <v>2.1359E-2</v>
+    <v>-0.32</v>
+    <v>-8.6909999999999991E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2257,23 +2261,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>35.06</v>
+    <v>37.86</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.995422615626</v>
+    <v>45132.963471249997</v>
     <v>0</v>
-    <v>32.86</v>
-    <v>10373503960</v>
+    <v>36.340000000000003</v>
+    <v>10903580240</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>33.76</v>
-    <v>33.78</v>
-    <v>35.03</v>
+    <v>36.340000000000003</v>
+    <v>36.049999999999997</v>
+    <v>36.82</v>
+    <v>36.5</v>
     <v>296132000</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>1</v>
-    <v>4988268</v>
+    <v>2747028</v>
+    <v>4032823</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2305,6 +2310,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2324,6 +2331,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2340,7 +2348,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2351,13 +2359,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2421,13 +2432,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2471,6 +2488,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2478,6 +2498,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2839,10 +2862,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O111" sqref="O111"/>
+      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3351,15 +3374,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>17.703917029613752</v>
+        <v>18.608570511857788</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-22.922287123440231</v>
+        <v>-24.093594401514967</v>
       </c>
       <c r="N16" s="33">
         <f>M101/E107</f>
-        <v>-60.38549817216569</v>
+        <v>-63.471140242624628</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3445,15 +3468,15 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>13.597462262419715</v>
+        <v>14.292279774544502</v>
       </c>
       <c r="M19" s="35">
         <f>M101/F28</f>
-        <v>-211.70416244897959</v>
+        <v>-222.52204571428572</v>
       </c>
       <c r="N19" s="33">
         <f>M101/F105</f>
-        <v>-23.248520243887302</v>
+        <v>-24.43649772708908</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,7 +3582,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.6560267452773017E-2</v>
+        <v>-1.5755191984536631E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4938,7 +4961,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4962,7 +4985,7 @@
       </c>
       <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5409999999999999</v>
+        <v>2.5449999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5009,7 +5032,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15106432</v>
+        <v>0.15333960000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5078,7 +5101,7 @@
       </c>
       <c r="M100" s="46">
         <f>M99/M103</f>
-        <v>9.7211570054820243E-2</v>
+        <v>9.2924796933698914E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5102,7 +5125,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10373503960</v>
+        <v>10903580240</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5126,7 +5149,7 @@
       </c>
       <c r="M102" s="46">
         <f>M101/M103</f>
-        <v>0.90278842994517972</v>
+        <v>0.90707520306630107</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5150,7 +5173,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>11490514960</v>
+        <v>12020591240</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,7 +5245,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.13637912027353621</v>
+        <v>0.1390905488081054</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5290,7 +5313,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="37">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2926491062.2340946</v>
+        <v>2856941292.7290902</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>145</v>
@@ -5321,7 +5344,7 @@
       </c>
       <c r="J108" s="37">
         <f>J107+J106</f>
-        <v>3244491062.2340946</v>
+        <v>3174941292.7290902</v>
       </c>
       <c r="K108" s="29" t="s">
         <v>142</v>
@@ -5331,7 +5354,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.13637912027353621</v>
+        <v>0.1390905488081054</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5346,7 +5369,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1918534338.7960062</v>
+        <v>1860080057.8238208</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5373,7 +5396,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>2728348338.7960062</v>
+        <v>2669894057.8238211</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5391,7 +5414,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>9.7413055596612441</v>
+        <v>9.5326001666865245</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5400,7 +5423,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>35.03</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5409,7 +5432,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.72191534228771781</v>
+        <v>-0.74110265706989342</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE7E32-729C-2A42-B2F4-4B0B171976D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1D078-31E1-7E40-8D84-83CAA08A3D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,19 +564,25 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
-    <t>Shares (No dilution)</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>3Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -709,6 +715,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -753,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -864,12 +877,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -919,11 +941,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,8 +955,6 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -954,55 +969,121 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,7 +1137,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Confluent</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1093,15 +1173,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7996642155267776E-2"/>
-          <c:y val="0.14547301406968907"/>
-          <c:w val="0.86778848181167423"/>
-          <c:h val="0.73389282707049819"/>
+          <c:x val="9.822296173044924E-2"/>
+          <c:y val="0.13540925523775349"/>
+          <c:w val="0.848532445923461"/>
+          <c:h val="0.67289851117210964"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1150,12 +1230,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$E$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>149805000</c:v>
                 </c:pt>
@@ -1168,12 +1284,27 @@
                 <c:pt idx="3">
                   <c:v>585944000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>770000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>987000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1256000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1481000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1795000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5776-2E4C-8489-CB860D659830}"/>
+              <c16:uniqueId val="{00000000-13C1-6843-B65E-1F80E73D7C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1182,11 +1313,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1224,30 +1355,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-93845000</c:v>
+                  <c:v>-95042000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-228468000</c:v>
+                  <c:v>-229828000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-335995000</c:v>
+                  <c:v>-342801000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-447529000</c:v>
+                  <c:v>-452551000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5776-2E4C-8489-CB860D659830}"/>
+              <c16:uniqueId val="{00000001-13C1-6843-B65E-1F80E73D7C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,12 +1480,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-71763000</c:v>
                 </c:pt>
@@ -1316,12 +1534,27 @@
                 <c:pt idx="3">
                   <c:v>-171788000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-46000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5776-2E4C-8489-CB860D659830}"/>
+              <c16:uniqueId val="{00000002-13C1-6843-B65E-1F80E73D7C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1333,13 +1566,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1889949440"/>
-        <c:axId val="1890327136"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1663356992"/>
+        <c:axId val="1663359264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1889949440"/>
+        <c:axId val="1663356992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1379,7 +1612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1890327136"/>
+        <c:crossAx val="1663359264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,10 +1620,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1890327136"/>
+        <c:axId val="1663359264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-500000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1436,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1889949440"/>
+        <c:crossAx val="1663356992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,10 +1686,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34979537970976771"/>
-          <c:y val="0.92675920891936903"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.4817722222432639E-2"/>
+          <c:x val="0.3420655862276783"/>
+          <c:y val="0.87341285144924308"/>
+          <c:w val="0.31586872273245381"/>
+          <c:h val="5.9653710543700708E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1564,7 +1796,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1802,7 +2034,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2038,21 +2269,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1555749</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D157F6B-7200-5493-B55D-D727D5C5A2AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179763ED-B409-BB94-0EBE-E3AB2ED3B034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,38 +2311,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2249,11 +2480,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.223500000000001</v>
     <v>16.600000000000001</v>
-    <v>2.5449999999999999</v>
-    <v>0.77</v>
-    <v>2.1359E-2</v>
-    <v>-0.32</v>
-    <v>-8.6909999999999991E-3</v>
+    <v>2.496</v>
+    <v>0.12</v>
+    <v>4.0400000000000002E-3</v>
+    <v>-0.43</v>
+    <v>-1.4419999999999999E-2</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2261,24 +2492,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>37.86</v>
+    <v>30.75</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.963471249997</v>
+    <v>45218.998001990622</v>
     <v>0</v>
-    <v>36.340000000000003</v>
-    <v>10903580240</v>
+    <v>29.545000000000002</v>
+    <v>9018212112</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>36.340000000000003</v>
-    <v>36.049999999999997</v>
-    <v>36.82</v>
-    <v>36.5</v>
-    <v>296132000</v>
+    <v>30.1</v>
+    <v>29.7</v>
+    <v>29.82</v>
+    <v>29.39</v>
+    <v>302421600</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>2747028</v>
-    <v>4032823</v>
+    <v>3109352</v>
+    <v>3303352</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2859,13 +3090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2956,13 +3187,13 @@
         <v>585944000</v>
       </c>
       <c r="F3" s="24">
-        <v>762900000</v>
+        <v>770000000</v>
       </c>
       <c r="G3" s="24">
-        <v>979400000</v>
+        <v>987000000</v>
       </c>
       <c r="H3" s="24">
-        <v>1248000000</v>
+        <v>1256000000</v>
       </c>
       <c r="I3" s="24">
         <v>1481000000</v>
@@ -3002,19 +3233,19 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.30200155646273363</v>
+        <v>0.31411875537594036</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28378555511862635</v>
+        <v>0.28181818181818175</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27424954053502137</v>
+        <v>0.27254305977710236</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18669871794871784</v>
+        <v>0.17914012738853513</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
@@ -3087,16 +3318,20 @@
       <c r="E6" s="10">
         <v>383529000</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="F6" s="27">
+        <f>F3*F7</f>
+        <v>534379999.99999994</v>
+      </c>
+      <c r="K6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="68" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3116,21 +3351,24 @@
       <c r="E7" s="2">
         <v>0.65449999999999997</v>
       </c>
+      <c r="F7" s="2">
+        <v>0.69399999999999995</v>
+      </c>
       <c r="K7" s="17">
-        <f>E7</f>
-        <v>0.65449999999999997</v>
+        <f>F7</f>
+        <v>0.69399999999999995</v>
       </c>
       <c r="L7" s="21">
-        <f>E21</f>
-        <v>-0.76380000000000003</v>
+        <f>F21</f>
+        <v>-8.1818181818181818E-2</v>
       </c>
       <c r="M7" s="21">
-        <f>E30</f>
-        <v>-0.77229999999999999</v>
+        <f>F30</f>
+        <v>-1.2987012987012988E-2</v>
       </c>
       <c r="N7" s="21">
-        <f>E107/E3</f>
-        <v>-0.29318160097210655</v>
+        <f>F107/F3</f>
+        <v>-5.9740259740259739E-2</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3301,7 +3539,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24525679463638253</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="31">
         <f>E67/E72</f>
         <v>2.0473282502271024</v>
       </c>
@@ -3372,17 +3610,17 @@
         <f>(E35+D35+C35+B35)/4</f>
         <v>7.994672062666941E-2</v>
       </c>
-      <c r="L16" s="32">
-        <f>M101/E3</f>
-        <v>18.608570511857788</v>
-      </c>
-      <c r="M16" s="32">
-        <f>M101/E28</f>
-        <v>-24.093594401514967</v>
-      </c>
-      <c r="N16" s="33">
-        <f>M101/E107</f>
-        <v>-63.471140242624628</v>
+      <c r="L16" s="29">
+        <f>M102/E3</f>
+        <v>15.390911267971001</v>
+      </c>
+      <c r="M16" s="29">
+        <f>M102/E28</f>
+        <v>-19.927504550868299</v>
+      </c>
+      <c r="N16" s="30">
+        <f>M102/E107</f>
+        <v>-52.496170349500545</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3447,36 +3685,35 @@
       <c r="E19" s="10">
         <v>-447529000</v>
       </c>
-      <c r="F19" s="30">
-        <v>-89920000</v>
-      </c>
-      <c r="G19" s="30">
-        <v>54000000</v>
-      </c>
-      <c r="H19" s="30">
-        <v>124000000</v>
-      </c>
-      <c r="I19" s="30">
-        <v>184000000</v>
-      </c>
-      <c r="J19" s="30">
-        <v>313000000</v>
+      <c r="F19" s="27">
+        <v>-63000000</v>
+      </c>
+      <c r="G19" s="27">
+        <v>28000000</v>
+      </c>
+      <c r="H19" s="27">
+        <v>109000000</v>
+      </c>
+      <c r="I19" s="27">
+        <v>165000000</v>
+      </c>
+      <c r="J19" s="27">
+        <v>290000000</v>
       </c>
       <c r="K19" s="26">
         <f>E40-E56-E61</f>
         <v>809814000</v>
       </c>
-      <c r="L19" s="32">
-        <f>M101/F3</f>
-        <v>14.292279774544502</v>
-      </c>
-      <c r="M19" s="35">
-        <f>M101/F28</f>
-        <v>-222.52204571428572</v>
-      </c>
-      <c r="N19" s="33">
-        <f>M101/F105</f>
-        <v>-24.43649772708908</v>
+      <c r="L19" s="29">
+        <f>M102/F3</f>
+        <v>11.711963781818183</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="30">
+        <f>M102/F107</f>
+        <v>-196.04808939130436</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,23 +3735,23 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
-        <v>-0.79907447338608217</v>
+        <v>-0.85922699981453721</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>-1.6005338078291815</v>
+        <v>-1.4444444444444444</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>1.2962962962962963</v>
+        <v>2.8928571428571428</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>0.4838709677419355</v>
+        <v>0.51376146788990829</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="3"/>
-        <v>0.70108695652173902</v>
+        <v>0.75757575757575757</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3533,31 +3770,34 @@
       <c r="E21" s="2">
         <v>-0.76380000000000003</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="69">
         <f>F19/F3</f>
-        <v>-0.11786603748853061</v>
-      </c>
-      <c r="G21" s="31">
+        <v>-8.1818181818181818E-2</v>
+      </c>
+      <c r="G21" s="69">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>5.5135797426996119E-2</v>
-      </c>
-      <c r="H21" s="31">
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="H21" s="69">
         <f t="shared" si="4"/>
-        <v>9.9358974358974353E-2</v>
-      </c>
-      <c r="I21" s="31">
+        <v>8.6783439490445854E-2</v>
+      </c>
+      <c r="I21" s="69">
         <f t="shared" si="4"/>
-        <v>0.12424037812288993</v>
-      </c>
-      <c r="J21" s="31">
+        <v>0.11141120864280891</v>
+      </c>
+      <c r="J21" s="69">
         <f t="shared" si="4"/>
-        <v>0.17437325905292478</v>
+        <v>0.16155988857938719</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3576,13 +3816,17 @@
       <c r="E22" s="10">
         <v>-462674000</v>
       </c>
-      <c r="M22" s="41">
-        <f>(-1*E98)/M101</f>
+      <c r="L22" s="17">
+        <f>SUM(H29:J29)/3</f>
+        <v>0.61133458620532444</v>
+      </c>
+      <c r="M22" s="36">
+        <f>(-1*E98)/M102</f>
         <v>0</v>
       </c>
-      <c r="N22" s="42">
-        <f>E107/M101</f>
-        <v>-1.5755191984536631E-2</v>
+      <c r="N22" s="37">
+        <f>F107/M102</f>
+        <v>-5.1007893170743378E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3686,20 +3930,20 @@
       <c r="E28" s="11">
         <v>-452551000</v>
       </c>
-      <c r="F28" s="38">
-        <v>-49000000</v>
-      </c>
-      <c r="G28" s="38">
-        <v>27000000</v>
-      </c>
-      <c r="H28" s="38">
-        <v>119000000</v>
-      </c>
-      <c r="I28" s="38">
-        <v>155000000</v>
-      </c>
-      <c r="J28" s="38">
-        <v>213000000</v>
+      <c r="F28" s="33">
+        <v>-10000000</v>
+      </c>
+      <c r="G28" s="33">
+        <v>70000000</v>
+      </c>
+      <c r="H28" s="33">
+        <v>141300000</v>
+      </c>
+      <c r="I28" s="33">
+        <v>136000000</v>
+      </c>
+      <c r="J28" s="33">
+        <v>252000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3721,23 +3965,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-0.89172491056256642</v>
+        <v>-0.9779030429719523</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>-1.5510204081632653</v>
+        <v>-8</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>3.4074074074074074</v>
+        <v>1.0185714285714287</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>0.30252100840336138</v>
+        <v>-3.7508846426043907E-2</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>0.37419354838709684</v>
+        <v>0.85294117647058831</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3756,25 +4000,25 @@
       <c r="E30" s="2">
         <v>-0.77229999999999999</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="28">
         <f>F28/F3</f>
-        <v>-6.422860138943505E-2</v>
-      </c>
-      <c r="G30" s="31">
+        <v>-1.2987012987012988E-2</v>
+      </c>
+      <c r="G30" s="28">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>2.756789871349806E-2</v>
-      </c>
-      <c r="H30" s="31">
+        <v>7.0921985815602842E-2</v>
+      </c>
+      <c r="H30" s="28">
         <f t="shared" si="6"/>
-        <v>9.5352564102564097E-2</v>
-      </c>
-      <c r="I30" s="31">
+        <v>0.1125</v>
+      </c>
+      <c r="I30" s="28">
         <f t="shared" si="6"/>
-        <v>0.10465901417960838</v>
-      </c>
-      <c r="J30" s="31">
+        <v>9.1829844699527347E-2</v>
+      </c>
+      <c r="J30" s="28">
         <f t="shared" si="6"/>
-        <v>0.11866295264623955</v>
+        <v>0.1403899721448468</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3793,20 +4037,20 @@
       <c r="E31" s="12">
         <v>-1.62</v>
       </c>
-      <c r="F31" s="39">
-        <v>-0.17</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="I31" s="39">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J31" s="39">
-        <v>0.72</v>
+      <c r="F31" s="34">
+        <v>-0.01</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0.23</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="I31" s="34">
+        <v>0.45</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0.83</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3826,7 +4070,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3842,8 +4086,12 @@
       <c r="E33" s="1">
         <v>280080357</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>302421600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3859,8 +4107,12 @@
       <c r="E34" s="1">
         <v>280080357</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>302421600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -3870,15 +4122,19 @@
         <v>-5.6846923379533433E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>-0.10819756990521552</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="7"/>
         <v>0.4848313757914266</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" s="22">
+        <f t="shared" si="7"/>
+        <v>7.9767261222107061E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3895,7 +4151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3912,7 +4168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3929,7 +4185,7 @@
         <v>435781000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -3946,7 +4202,7 @@
         <v>1491044000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3963,7 +4219,7 @@
         <v>1926825000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3980,7 +4236,7 @@
         <v>178188000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -3997,7 +4253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4014,7 +4270,7 @@
         <v>93112000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4031,7 +4287,7 @@
         <v>2198125000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4048,7 +4304,7 @@
         <v>58567000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4065,7 +4321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4082,7 +4338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4681,7 +4937,7 @@
         <v>-42080000</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4697,12 +4953,8 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="M83" s="66"/>
-    </row>
-    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4718,12 +4970,18 @@
       <c r="E84" s="1">
         <v>13580000</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="M84" s="67"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" s="75"/>
+    </row>
+    <row r="85" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4739,13 +4997,16 @@
       <c r="E85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="M85" s="44">
-        <f>E17</f>
-        <v>0</v>
-      </c>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M85" s="76"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4763,12 +5024,18 @@
       <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="M86" s="44">
-        <f>E56</f>
-        <v>7375000</v>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="M86" s="45">
+        <f>E17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4787,12 +5054,18 @@
       <c r="E87" s="10">
         <v>-157333000</v>
       </c>
-      <c r="L87" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="M87" s="44">
-        <f>E61</f>
-        <v>1109636000</v>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M87" s="45">
+        <f>E56</f>
+        <v>7375000</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4811,12 +5084,18 @@
       <c r="E88" s="1">
         <v>-4121000</v>
       </c>
-      <c r="L88" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="M88" s="46">
-        <f>M85/(M86+M87)</f>
-        <v>0</v>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="M88" s="45">
+        <f>E61</f>
+        <v>1109636000</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4839,12 +5118,18 @@
         <f t="shared" si="9"/>
         <v>7.0330953128626625E-3</v>
       </c>
-      <c r="L89" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="M89" s="44">
-        <f>E27</f>
-        <v>6293000</v>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M89" s="46">
+        <f>M86/(M87+M88)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4863,12 +5148,18 @@
       <c r="E90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L90" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="44">
-        <f>E25</f>
-        <v>-446258000</v>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="M90" s="45">
+        <f>E27</f>
+        <v>6293000</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4887,12 +5178,18 @@
       <c r="E91" s="1">
         <v>-2051908000</v>
       </c>
-      <c r="L91" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="M91" s="46">
-        <f>M89/M90</f>
-        <v>-1.4101707980585222E-2</v>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="45">
+        <f>E25</f>
+        <v>-446258000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4911,15 +5208,21 @@
       <c r="E92" s="1">
         <v>1200558000</v>
       </c>
-      <c r="L92" s="45" t="s">
-        <v>131</v>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="M92" s="46">
-        <f>M88*(1-M91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <f>M90/M91</f>
+        <v>-1.4101707980585222E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4935,12 +5238,21 @@
       <c r="E93" s="1">
         <v>-10334000</v>
       </c>
-      <c r="L93" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="M93" s="67"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M93" s="46">
+        <f>M89*(1-M92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4956,13 +5268,16 @@
       <c r="E94" s="10">
         <v>-865805000</v>
       </c>
-      <c r="L94" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="M94" s="47">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="M94" s="76"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -4980,12 +5295,18 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="M95" s="48" cm="1">
-        <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5449999999999999</v>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="M95" s="70">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5004,11 +5325,18 @@
       <c r="E96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L96" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="M96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" s="48" cm="1">
+        <f t="array" ref="M96">_FV(A1,"Beta")</f>
+        <v>2.496</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5027,15 +5355,20 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="46">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15333960000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M97" s="47">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5051,12 +5384,21 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="M98" s="67"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="M98" s="46">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.13633008000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5072,13 +5414,16 @@
       <c r="E99" s="1">
         <v>82241000</v>
       </c>
-      <c r="L99" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="M99" s="44">
-        <f>M86+M87</f>
-        <v>1117011000</v>
-      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="M99" s="76"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5096,12 +5441,18 @@
       <c r="E100" s="10">
         <v>82241000</v>
       </c>
-      <c r="L100" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="M100" s="46">
-        <f>M99/M103</f>
-        <v>9.2924796933698914E-2</v>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M100" s="45">
+        <f>M87+M88</f>
+        <v>1117011000</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5120,12 +5471,18 @@
       <c r="E101" s="1">
         <v>-4000</v>
       </c>
-      <c r="L101" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="M101" s="49" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10903580240</v>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M101" s="46">
+        <f>M100/M104</f>
+        <v>0.11021079532797561</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5144,12 +5501,18 @@
       <c r="E102" s="10">
         <v>-940901000</v>
       </c>
-      <c r="L102" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="M102" s="46">
-        <f>M101/M103</f>
-        <v>0.90707520306630107</v>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M102" s="49" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>9018212112</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5168,15 +5531,21 @@
       <c r="E103" s="1">
         <v>1376682000</v>
       </c>
-      <c r="L103" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M103" s="50">
-        <f>M99+M101</f>
-        <v>12020591240</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="M103" s="46">
+        <f>M102/M104</f>
+        <v>0.88978920467202438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5192,12 +5561,23 @@
       <c r="E104" s="11">
         <v>435781000</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="M104" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M104" s="51">
+        <f>M100+M102</f>
+        <v>10135223112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>160</v>
       </c>
@@ -5217,38 +5597,35 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>-356461200</v>
       </c>
-      <c r="F105" s="27">
-        <f>E105*(1+$M$106)</f>
-        <v>-446200611.9605608</v>
-      </c>
-      <c r="G105" s="27">
-        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>-558531997.6310997</v>
-      </c>
-      <c r="H105" s="27">
-        <f t="shared" si="11"/>
-        <v>-699142905.71470666</v>
-      </c>
-      <c r="I105" s="27">
-        <f t="shared" si="11"/>
-        <v>-875152730.16470456</v>
-      </c>
-      <c r="J105" s="27">
-        <f t="shared" si="11"/>
-        <v>-1095473178.4509695</v>
-      </c>
-      <c r="K105" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="L105" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M105" s="52">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.1390905488081054</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F105" s="71">
+        <f>F107/F3</f>
+        <v>-5.9740259740259739E-2</v>
+      </c>
+      <c r="G105" s="71">
+        <f>G107/G3</f>
+        <v>4.8632218844984802E-2</v>
+      </c>
+      <c r="H105" s="71">
+        <f>H107/H3</f>
+        <v>9.8726114649681534E-2</v>
+      </c>
+      <c r="I105" s="71">
+        <f>I107/I3</f>
+        <v>0.15192437542201215</v>
+      </c>
+      <c r="J105" s="71">
+        <f>J107/J3</f>
+        <v>0.1392757660167131</v>
+      </c>
+      <c r="K105" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="M105" s="76"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
@@ -5265,34 +5642,40 @@
         <f>(E107/D107)-1</f>
         <v>0.5068858441079982</v>
       </c>
-      <c r="F106" s="36">
-        <v>-65000000</v>
-      </c>
-      <c r="G106" s="36">
-        <v>58000000</v>
-      </c>
-      <c r="H106" s="36">
-        <v>152000000</v>
-      </c>
-      <c r="I106" s="36">
-        <v>192000000</v>
-      </c>
-      <c r="J106" s="36">
-        <v>318000000</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="L106" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="M106" s="54">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.25175085524191926</v>
+      <c r="F106" s="52">
+        <f>(F107/E107)/4</f>
+        <v>6.6942976226511741E-2</v>
+      </c>
+      <c r="G106" s="52">
+        <f>(G107/F107)-1</f>
+        <v>-2.0434782608695654</v>
+      </c>
+      <c r="H106" s="52">
+        <f>(H107/G107)-1</f>
+        <v>1.5833333333333335</v>
+      </c>
+      <c r="I106" s="52">
+        <f>(I107/H107)-1</f>
+        <v>0.81451612903225801</v>
+      </c>
+      <c r="J106" s="52">
+        <f>(J107/I107)-1</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="K106" s="66">
+        <f>SUM(F106:J106)/5</f>
+        <v>0.10648505776672978</v>
+      </c>
+      <c r="L106" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="M106" s="53">
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.12130503345607348</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="35" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -5307,151 +5690,239 @@
       <c r="E107" s="1">
         <v>-171788000</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="37">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2856941292.7290902</v>
-      </c>
-      <c r="K107" s="29" t="s">
+      <c r="F107" s="54">
+        <v>-46000000</v>
+      </c>
+      <c r="G107" s="54">
+        <v>48000000</v>
+      </c>
+      <c r="H107" s="54">
+        <v>124000000</v>
+      </c>
+      <c r="I107" s="54">
+        <v>225000000</v>
+      </c>
+      <c r="J107" s="54">
+        <v>250000000</v>
+      </c>
+      <c r="K107" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="L107" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M107" s="41">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.2519278061008513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="56">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>2660816271.009141</v>
+      </c>
+      <c r="K108" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="55" t="s">
+      <c r="L108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="56">
+      <c r="M108" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="37">
-        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>-65000000</v>
-      </c>
-      <c r="G108" s="37">
-        <f t="shared" si="12"/>
-        <v>58000000</v>
-      </c>
-      <c r="H108" s="37">
-        <f t="shared" si="12"/>
-        <v>152000000</v>
-      </c>
-      <c r="I108" s="37">
-        <f t="shared" si="12"/>
-        <v>192000000</v>
-      </c>
-      <c r="J108" s="37">
-        <f>J107+J106</f>
-        <v>3174941292.7290902</v>
-      </c>
-      <c r="K108" s="29" t="s">
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="56">
+        <f t="shared" ref="F109:I109" si="11">F108+F107</f>
+        <v>-46000000</v>
+      </c>
+      <c r="G109" s="56">
+        <f t="shared" si="11"/>
+        <v>48000000</v>
+      </c>
+      <c r="H109" s="56">
+        <f t="shared" si="11"/>
+        <v>124000000</v>
+      </c>
+      <c r="I109" s="56">
+        <f t="shared" si="11"/>
+        <v>225000000</v>
+      </c>
+      <c r="J109" s="56">
+        <f>J108+J107</f>
+        <v>2910816271.009141</v>
+      </c>
+      <c r="K109" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="L108" s="57" t="s">
+      <c r="L109" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="54">
-        <f>M105</f>
-        <v>0.1390905488081054</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="M109" s="41">
+        <f>M106</f>
+        <v>0.12130503345607348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="64"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="58" t="s">
+      <c r="G110" s="77"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F111" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="49">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1860080057.8238208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="58" t="s">
+      <c r="G111" s="49">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>1869518786.8426065</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="49">
+      <c r="G112" s="49">
         <f>E40</f>
         <v>1926825000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="58" t="s">
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="G112" s="49">
-        <f>M99</f>
+      <c r="G113" s="49">
+        <f>M100</f>
         <v>1117011000</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="58" t="s">
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="49">
-        <f>G110+G111-G112</f>
-        <v>2669894057.8238211</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="G114" s="58">
-        <f>E34*(1+(5*0))</f>
-        <v>280080357</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="59" t="s">
+      <c r="G114" s="49">
+        <f>G111+G112-G113</f>
+        <v>2679332786.8426065</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" s="60">
+        <f>E34*(1+(5*0.05))</f>
+        <v>350100446.25</v>
+      </c>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="60">
-        <f>G113/G114</f>
-        <v>9.5326001666865245</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="58" t="s">
+      <c r="G116" s="62">
+        <f>G114/G115</f>
+        <v>7.6530401932974019</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="61" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>36.82</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="59" t="s">
+      <c r="G117" s="63" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>29.82</v>
+      </c>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="62">
-        <f>G115/G116-1</f>
-        <v>-0.74110265706989342</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="59" t="s">
+      <c r="G118" s="64">
+        <f>G116/G117-1</f>
+        <v>-0.74335881310203211</v>
+      </c>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="63" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+      <c r="G119" s="65" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
+  <mergeCells count="7">
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L94:M94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CFLT" display="ROIC.AI | CFLT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5464,7 +5935,7 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:CFLT/explorer/revenue_proj" xr:uid="{419D14A5-A902-414D-808B-A02D26FA45E5}"/>
-    <hyperlink ref="K106" r:id="rId11" xr:uid="{CB0A6B2F-3D78-504E-B56E-C6DAD56D2113}"/>
+    <hyperlink ref="K107" r:id="rId11" xr:uid="{CB0A6B2F-3D78-504E-B56E-C6DAD56D2113}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId12"/>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1D078-31E1-7E40-8D84-83CAA08A3D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D83CA-9DA8-B349-89C5-F4B087481ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2314,13 +2314,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2336,14 +2338,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2353,6 +2355,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2480,11 +2484,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.223500000000001</v>
     <v>16.600000000000001</v>
-    <v>2.496</v>
-    <v>0.12</v>
-    <v>4.0400000000000002E-3</v>
-    <v>-0.43</v>
-    <v>-1.4419999999999999E-2</v>
+    <v>2.4849999999999999</v>
+    <v>0.24</v>
+    <v>8.8950000000000001E-3</v>
+    <v>0.31</v>
+    <v>1.1389E-2</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -2492,24 +2496,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>30.75</v>
+    <v>27.939900000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.998001990622</v>
+    <v>45226.999186678127</v>
     <v>0</v>
-    <v>29.545000000000002</v>
-    <v>9018212112</v>
+    <v>26.71</v>
+    <v>8231916000</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>30.1</v>
-    <v>29.7</v>
-    <v>29.82</v>
-    <v>29.39</v>
+    <v>27.82</v>
+    <v>26.98</v>
+    <v>27.22</v>
+    <v>27.53</v>
     <v>302421600</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>3109352</v>
-    <v>3303352</v>
+    <v>3342374</v>
+    <v>3308986</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2671,9 +2675,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3093,10 +3097,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,20 +3611,20 @@
         <v>1048618000</v>
       </c>
       <c r="K16" s="25">
-        <f>(E35+D35+C35+B35)/4</f>
-        <v>7.994672062666941E-2</v>
+        <f>AVERAGE(C35:F35)</f>
+        <v>9.9888535932196182E-2</v>
       </c>
       <c r="L16" s="29">
         <f>M102/E3</f>
-        <v>15.390911267971001</v>
+        <v>14.048980789973104</v>
       </c>
       <c r="M16" s="29">
         <f>M102/E28</f>
-        <v>-19.927504550868299</v>
+        <v>-18.190029411049803</v>
       </c>
       <c r="N16" s="30">
         <f>M102/E107</f>
-        <v>-52.496170349500545</v>
+        <v>-47.919039746664495</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3706,14 +3710,14 @@
       </c>
       <c r="L19" s="29">
         <f>M102/F3</f>
-        <v>11.711963781818183</v>
+        <v>10.690799999999999</v>
       </c>
       <c r="M19" s="32" t="s">
         <v>166</v>
       </c>
       <c r="N19" s="30">
         <f>M102/F107</f>
-        <v>-196.04808939130436</v>
+        <v>-178.95469565217391</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,7 +3830,7 @@
       </c>
       <c r="N22" s="37">
         <f>F107/M102</f>
-        <v>-5.1007893170743378E-3</v>
+        <v>-5.5880064859748328E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5306,7 +5310,7 @@
       </c>
       <c r="M95" s="70">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5336,7 +5340,7 @@
       </c>
       <c r="M96" s="48" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.496</v>
+        <v>2.4849999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5395,7 +5399,7 @@
       </c>
       <c r="M98" s="46">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.13633008000000002</v>
+        <v>0.13679175000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,7 +5486,7 @@
       </c>
       <c r="M101" s="46">
         <f>M100/M104</f>
-        <v>0.11021079532797561</v>
+        <v>0.11948012857518302</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5512,7 +5516,7 @@
       </c>
       <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>9018212112</v>
+        <v>8231916000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5542,7 +5546,7 @@
       </c>
       <c r="M103" s="46">
         <f>M102/M104</f>
-        <v>0.88978920467202438</v>
+        <v>0.88051987142481702</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5574,7 +5578,7 @@
       </c>
       <c r="M104" s="51">
         <f>M100+M102</f>
-        <v>10135223112</v>
+        <v>9348927000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5671,7 +5675,7 @@
       </c>
       <c r="M106" s="53">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12130503345607348</v>
+        <v>0.12044785412197573</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5723,7 +5727,7 @@
       <c r="I108" s="73"/>
       <c r="J108" s="56">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2660816271.009141</v>
+        <v>2684712006.9617305</v>
       </c>
       <c r="K108" s="57" t="s">
         <v>145</v>
@@ -5754,7 +5758,7 @@
       </c>
       <c r="J109" s="56">
         <f>J108+J107</f>
-        <v>2910816271.009141</v>
+        <v>2934712006.9617305</v>
       </c>
       <c r="K109" s="57" t="s">
         <v>142</v>
@@ -5764,7 +5768,7 @@
       </c>
       <c r="M109" s="41">
         <f>M106</f>
-        <v>0.12130503345607348</v>
+        <v>0.12044785412197573</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5785,7 +5789,7 @@
       </c>
       <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1869518786.8426065</v>
+        <v>1890006763.739367</v>
       </c>
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
@@ -5830,7 +5834,7 @@
       </c>
       <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>2679332786.8426065</v>
+        <v>2699820763.739367</v>
       </c>
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
@@ -5860,7 +5864,7 @@
       </c>
       <c r="G116" s="62">
         <f>G114/G115</f>
-        <v>7.6530401932974019</v>
+        <v>7.7115604754513134</v>
       </c>
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
@@ -5875,7 +5879,7 @@
       </c>
       <c r="G117" s="63" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>29.82</v>
+        <v>27.22</v>
       </c>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
@@ -5890,7 +5894,7 @@
       </c>
       <c r="G118" s="64">
         <f>G116/G117-1</f>
-        <v>-0.74335881310203211</v>
+        <v>-0.71669505968217062</v>
       </c>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB59291-FDE3-2F45-910D-9C1C71F76C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FDF3C-FE8A-A04B-A22C-114CA636990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="244">
   <si>
     <t>2019 Y</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1087,76 +1090,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1164,13 +1099,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,8 +1140,189 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1188,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,216 +1393,234 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,29 +1629,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,7 +1700,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1686,10 +1840,10 @@
     <v>41.223500000000001</v>
     <v>14.69</v>
     <v>2.4809999999999999</v>
-    <v>1.47</v>
-    <v>9.0295E-2</v>
-    <v>-0.05</v>
-    <v>-2.8170000000000001E-3</v>
+    <v>-0.91</v>
+    <v>-5.1124000000000003E-2</v>
+    <v>0.02</v>
+    <v>1.1840000000000002E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -1697,24 +1851,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>18.57</v>
+    <v>18</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999745798435</v>
+    <v>45239.966607488284</v>
     <v>0</v>
-    <v>16.920000000000002</v>
-    <v>5367984000</v>
+    <v>16.850000000000001</v>
+    <v>5200010439</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>16.97</v>
-    <v>16.28</v>
-    <v>17.75</v>
-    <v>17.7</v>
-    <v>302421600</v>
+    <v>17.95</v>
+    <v>17.8</v>
+    <v>16.89</v>
+    <v>16.91</v>
+    <v>307875100</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>23842045</v>
-    <v>5501756</v>
+    <v>5187843</v>
+    <v>6921429</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1876,9 +2030,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2322,9 +2476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="B36:E36"/>
+      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7808,7 +7962,7 @@
       <c r="E172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F172" s="100">
+      <c r="F172" s="40">
         <v>0</v>
       </c>
       <c r="G172" s="4" t="s">
@@ -8557,7 +8711,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8565,1734 +8719,1791 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="107" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-    </row>
-    <row r="2" spans="1:16" s="107" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="83" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5367984000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>5200010439</v>
+      </c>
+      <c r="B3" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="85">
         <f>Financials!F8*0.01</f>
         <v>0.67370000000000008</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="85">
         <f>SUM(C11:E11)/3</f>
         <v>0.57647020041506292</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="87">
         <f>AVERAGE(Financials!C129:F129)</f>
         <v>4.6047373947046277E-2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3732233942.4929857</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="88">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>3709732368.2906032</v>
+      </c>
+      <c r="J3" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="114">
+      <c r="K3" s="90">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="108" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="92">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>732154000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!F17*0.01</f>
         <v>-0.70909999999999995</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.74329472146449538</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="71">
         <f>A5*(1+(5*G3))</f>
-        <v>372050202.5243203</v>
-      </c>
-      <c r="H4" s="47" t="s">
+        <v>378759299.29342139</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2584813418.5170951</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>2565617191.3161449</v>
+      </c>
+      <c r="J4" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="68" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.0295E-2</v>
-      </c>
-      <c r="L4" s="47" t="s">
+        <v>-5.1124000000000003E-2</v>
+      </c>
+      <c r="L4" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="110" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="92" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>302421600</v>
-      </c>
-      <c r="B5" s="43" t="s">
+        <v>307875100</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="36">
         <f>Financials!F34*0.01</f>
         <v>-0.6987000000000001</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>0.32245933399697596</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="71">
         <f>Financials!F56</f>
         <v>1847555000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>3316967418.5170956</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>3297771191.3161449</v>
+      </c>
+      <c r="J5" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="113" cm="1">
+      <c r="K5" s="69" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>17.75</v>
-      </c>
-      <c r="L5" s="43" t="s">
+        <v>16.89</v>
+      </c>
+      <c r="L5" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="73">
         <f>Financials!F20</f>
         <v>-3147000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="95">
         <f>O20/F10</f>
-        <v>6.9714077922077919</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>6.7532603103896101</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <f>Financials!F190</f>
         <v>-0.26179960086844012</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!F33/Financials!F126</f>
         <v>-0.62768818969615936</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="71">
         <f>Financials!F96+Financials!F105</f>
         <v>1115401000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="68">
         <f>N25</f>
-        <v>0.11480546374221019</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>0.11535018344313724</v>
+      </c>
+      <c r="J6" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="70">
         <f>I5/G4</f>
-        <v>8.9153759251085773</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>8.7067728699154436</v>
+      </c>
+      <c r="L6" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="73">
         <f>Financials!F96</f>
         <v>7618000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97">
         <f>O20/F12</f>
-        <v>268.39920000000001</v>
-      </c>
-      <c r="B7" s="60" t="s">
+        <v>260.00052195000001</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="61">
-        <f>F14/A3</f>
-        <v>-5.5886902792556762E-3</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="99">
+        <f>F15/A3</f>
+        <v>-5.7692191875232503E-3</v>
+      </c>
+      <c r="D7" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="100">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>-0.19382367311794038</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="101">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>1.4649612680033517</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="103">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="105">
         <f>K6/K5-1</f>
-        <v>-0.49772529999388293</v>
-      </c>
-      <c r="L7" s="69" t="s">
+        <v>-0.48450131024775345</v>
+      </c>
+      <c r="L7" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="73">
         <f>Financials!F105</f>
         <v>1107783000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="71" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="75">
         <f>O5/(O6+O7)</f>
         <v>-2.8214068303686296E-3</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56">
         <v>2019</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="56">
         <v>2020</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="56">
         <v>2021</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="57">
         <v>2022</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="54">
         <v>2023</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="62">
         <v>2024</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="62">
         <v>2025</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="62">
         <v>2026</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="63">
         <v>2027</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="73">
         <f>Financials!F25</f>
         <v>7408000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="51">
         <v>149805000</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="51">
         <v>236577000</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="51">
         <v>387864000</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="53">
         <v>585944000</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="51">
         <v>770000000</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="51">
         <v>980000000</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="51">
         <v>1220000000</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="51">
         <v>1582000000</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="53">
         <v>1981000000</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="37"/>
+      <c r="N10" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="73">
         <f>Financials!F24</f>
         <v>-470505000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83">
+      <c r="A11" s="45"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.57923300290377489</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>0.6394831281147364</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>0.51069447022667736</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>0.31411875537594036</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>0.24489795918367352</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>0.29672131147540992</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="59">
         <f t="shared" si="0"/>
         <v>0.25221238938053103</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="59">
         <f>SUM(F11:J11)/5</f>
         <v>0.27613553762856552</v>
       </c>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="76">
         <f>O9/O10</f>
         <v>-1.5744784858821904E-2</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="51">
         <v>-95042000</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="51">
         <v>-229828000</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="51">
         <v>-342801000</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="51">
         <v>-452551000</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="52">
         <v>20000000</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="51">
         <v>67624000</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="51">
         <v>130000000</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="51">
         <v>219000000</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="53">
         <v>392000000</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="86" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="76">
         <f>O8*(1-O11)</f>
         <v>-2.8658292739119945E-3</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83">
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.4181730182445658</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0.49155455384026325</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>0.32015659230865712</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>-1.0441939140560954</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>2.3812000000000002</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="38">
         <f t="shared" si="1"/>
         <v>0.92239441618360352</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>0.68461538461538463</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="59">
         <f t="shared" si="1"/>
         <v>0.78995433789954328</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="59">
         <f>SUM(F13:J13)/5</f>
         <v>0.74679404492848722</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="110" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B12/B10</f>
+        <v>-0.63443810286706048</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-0.97147229020572579</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.88381752366808985</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.77234513878459377</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>6.9004081632653064E-2</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.10655737704918032</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.13843236409608092</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.19787985865724381</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="76">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5710000000000001E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B15" s="51">
         <v>-70788000</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C15" s="51">
         <v>-83097000</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D15" s="51">
         <v>-108660000</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E15" s="51">
         <v>-161454000</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F15" s="52">
         <v>-30000000</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G15" s="51">
         <v>46000000</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H15" s="51">
         <v>109000000</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I15" s="51">
         <v>214000000</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J15" s="53">
         <v>327000000</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K15" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="85">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
-        <v>0.17388540430581445</v>
-      </c>
-      <c r="D15" s="83">
-        <f t="shared" si="2"/>
-        <v>0.30762843423950326</v>
-      </c>
-      <c r="E15" s="83">
-        <f t="shared" si="2"/>
-        <v>0.48586416344561023</v>
-      </c>
-      <c r="F15" s="84">
-        <f t="shared" si="2"/>
-        <v>-0.8141885614478428</v>
-      </c>
-      <c r="G15" s="83">
-        <f t="shared" si="2"/>
-        <v>-2.5333333333333332</v>
-      </c>
-      <c r="H15" s="83">
-        <f t="shared" si="2"/>
-        <v>1.3695652173913042</v>
-      </c>
-      <c r="I15" s="83">
-        <f t="shared" si="2"/>
-        <v>0.96330275229357798</v>
-      </c>
-      <c r="J15" s="83">
-        <f t="shared" si="2"/>
-        <v>0.52803738317756999</v>
-      </c>
-      <c r="K15" s="84">
-        <f>SUM(F15:J15)/5</f>
-        <v>-9.7323308383744728E-2</v>
-      </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="57" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="O15" s="89" cm="1">
+      <c r="O15" s="77" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
         <v>2.4809999999999999</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
+        <v>0.17388540430581445</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.30762843423950326</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.48586416344561023</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="3"/>
+        <v>-0.8141885614478428</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="3"/>
+        <v>-2.5333333333333332</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="3"/>
+        <v>1.3695652173913042</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.96330275229357798</v>
+      </c>
+      <c r="J16" s="59">
+        <f t="shared" si="3"/>
+        <v>0.52803738317756999</v>
+      </c>
+      <c r="K16" s="59">
+        <f>SUM(F16:J16)/5</f>
+        <v>-9.7323308383744728E-2</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="O16" s="76">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="42">
+        <f>B15/B10</f>
+        <v>-0.47253429458295787</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-0.35124716265740119</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.28014974320895986</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.27554510328632087</v>
+      </c>
+      <c r="F17" s="42">
+        <f t="shared" si="4"/>
+        <v>-3.896103896103896E-2</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>4.6938775510204082E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="4"/>
+        <v>8.9344262295081966E-2</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.13527180783817952</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.16506814740030287</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="82">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.14070748999999999</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B18" s="48">
         <v>0.56269644017894693</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C18" s="48">
         <v>0.68495732755750693</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D18" s="48">
         <v>-0.12917479561206838</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E18" s="48">
         <v>-0.1839425959772869</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="85">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="95">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13925611000000002</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="110" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="111"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="112" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2014</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="77" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="57" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="97">
+      <c r="O19" s="78">
         <f>O6+O7</f>
         <v>1115401000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="78">
+        <f>A3</f>
+        <v>5200010439</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2014</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" s="78">
+        <f>O19+O20</f>
+        <v>6315411439</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="118" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="O20" s="97">
-        <f>A3</f>
-        <v>5367984000</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="O21" s="97">
-        <f>O19+O20</f>
-        <v>6483385000</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="71" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="98">
+      <c r="O22" s="79">
         <f>(O19/O21)</f>
-        <v>0.17203991433487292</v>
-      </c>
-      <c r="P22" s="41"/>
+        <v>0.17661572975467388</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="94" t="s">
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="99">
+      <c r="O23" s="80">
         <f>O20/O21</f>
-        <v>0.82796008566512713</v>
-      </c>
-      <c r="P23" s="41"/>
+        <v>0.82338427024532612</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="102" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="103"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="104">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11480546374221019</v>
-      </c>
-      <c r="O25" s="105"/>
-      <c r="P25" s="41"/>
+        <v>0.11535018344313724</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="77"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="77"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10300,8 +10511,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:CFLT/explorer/revenue_proj" xr:uid="{46B29E1A-F942-8248-87B5-EAF8538307C2}"/>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FDF3C-FE8A-A04B-A22C-114CA636990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6046A93-7B20-5E40-9A44-08B35C7DF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -962,6 +962,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1045,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1240,17 +1246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -1307,15 +1302,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
@@ -1325,12 +1311,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1394,12 +1441,6 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1491,15 +1532,6 @@
     <xf numFmtId="9" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1542,74 +1574,96 @@
     <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1624,10 +1678,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,7 +1698,10 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1683,6 +1740,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1700,7 +1758,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1712,6 +1770,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1839,11 +1898,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.223500000000001</v>
     <v>14.69</v>
-    <v>2.4809999999999999</v>
-    <v>-0.91</v>
-    <v>-5.1124000000000003E-2</v>
-    <v>0.02</v>
-    <v>1.1840000000000002E-3</v>
+    <v>2.1019999999999999</v>
+    <v>1.61</v>
+    <v>7.5871999999999995E-2</v>
+    <v>-0.12</v>
+    <v>-5.2559999999999994E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -1851,24 +1910,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>18</v>
+    <v>22.965</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.966607488284</v>
+    <v>45261.875009825781</v>
     <v>0</v>
-    <v>16.850000000000001</v>
-    <v>5200010439</v>
+    <v>20.81</v>
+    <v>7028788000</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>17.95</v>
-    <v>17.8</v>
-    <v>16.89</v>
-    <v>16.91</v>
+    <v>21.5</v>
+    <v>21.22</v>
+    <v>22.83</v>
+    <v>22.71</v>
     <v>307875100</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>5187843</v>
-    <v>6921429</v>
+    <v>6469849</v>
+    <v>8258317</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2476,9 +2535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+      <selection pane="topRight" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7962,7 +8021,7 @@
       <c r="E172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F172" s="40">
+      <c r="F172" s="38">
         <v>0</v>
       </c>
       <c r="G172" s="4" t="s">
@@ -8708,1047 +8767,1103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCBE294-3CD4-5647-9D39-63AC53FB5A1F}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:18" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" cm="1">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:18" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5200010439</v>
-      </c>
-      <c r="B3" s="84" t="s">
+        <v>7028788000</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="104">
         <f>Financials!F8*0.01</f>
         <v>0.67370000000000008</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="104">
         <f>SUM(C11:E11)/3</f>
         <v>0.57647020041506292</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="87">
-        <f>AVERAGE(Financials!C129:F129)</f>
-        <v>4.6047373947046277E-2</v>
-      </c>
-      <c r="H3" s="86" t="s">
+      <c r="G3" s="81">
+        <f>AVERAGE(Financials!E129:J129)</f>
+        <v>1.8204891954785824E-2</v>
+      </c>
+      <c r="H3" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="97">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3709732368.2906032</v>
-      </c>
-      <c r="J3" s="89" t="s">
+        <v>3916155238.1346927</v>
+      </c>
+      <c r="J3" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="101">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="83" t="s">
         <v>203</v>
       </c>
       <c r="M3" s="34"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="115"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92">
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="84">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>732154000</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="105">
         <f>Financials!F17*0.01</f>
         <v>-0.70909999999999995</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="105">
         <f>SUM(C13:E13)/3</f>
         <v>0.74329472146449538</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="66">
         <f>A5*(1+(5*G3))</f>
-        <v>378759299.29342139</v>
-      </c>
-      <c r="H4" s="66" t="s">
+        <v>335899264.65534443</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="98">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2565617191.3161449</v>
-      </c>
-      <c r="J4" s="66" t="s">
+        <v>2695466300.9004822</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="68" cm="1">
+      <c r="K4" s="99" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.1124000000000003E-2</v>
-      </c>
-      <c r="L4" s="93" t="s">
+        <v>7.5871999999999995E-2</v>
+      </c>
+      <c r="L4" s="85" t="s">
         <v>242</v>
       </c>
       <c r="M4" s="34"/>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="117"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" cm="1">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>307875100</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="36">
-        <f>Financials!F34*0.01</f>
-        <v>-0.6987000000000001</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="105">
+        <f>F14</f>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="D5" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="105">
         <f>SUM(C16:E16)/3</f>
         <v>0.32245933399697596</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="66">
         <f>Financials!F56</f>
         <v>1847555000</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="98">
         <f>I4+G5-G6</f>
-        <v>3297771191.3161449</v>
-      </c>
-      <c r="J5" s="66" t="s">
+        <v>3427620300.9004822</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="69" cm="1">
+      <c r="K5" s="110" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>16.89</v>
-      </c>
-      <c r="L5" s="94" t="s">
+        <v>22.83</v>
+      </c>
+      <c r="L5" s="86" t="s">
         <v>210</v>
       </c>
       <c r="M5" s="34"/>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="68">
         <f>Financials!F20</f>
         <v>-3147000</v>
       </c>
       <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="87">
         <f>O20/F10</f>
-        <v>6.7532603103896101</v>
-      </c>
-      <c r="B6" s="67" t="s">
+        <v>9.128296103896103</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="36">
-        <f>Financials!F190</f>
-        <v>-0.26179960086844012</v>
-      </c>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="105">
+        <f>F17</f>
+        <v>-4.6753246753246755E-2</v>
+      </c>
+      <c r="D6" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="105">
         <f>Financials!F33/Financials!F126</f>
         <v>-0.62768818969615936</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="66">
         <f>Financials!F96+Financials!F105</f>
         <v>1115401000</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="99">
         <f>N25</f>
-        <v>0.11535018344313724</v>
-      </c>
-      <c r="J6" s="66" t="s">
+        <v>0.11137298049530645</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="102">
         <f>I5/G4</f>
-        <v>8.7067728699154436</v>
-      </c>
-      <c r="L6" s="96" t="s">
+        <v>10.204310225023727</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>216</v>
       </c>
       <c r="M6" s="34"/>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="68">
         <f>Financials!F96</f>
         <v>7618000</v>
       </c>
       <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
         <f>O20/F12</f>
-        <v>260.00052195000001</v>
-      </c>
-      <c r="B7" s="98" t="s">
+        <v>175.71969999999999</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="107">
         <f>F15/A3</f>
-        <v>-5.7692191875232503E-3</v>
-      </c>
-      <c r="D7" s="98" t="s">
+        <v>-5.1217934016504693E-3</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="106">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>-0.19382367311794038</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="91">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>1.4649612680033517</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="103">
         <f>K6/K5-1</f>
-        <v>-0.48450131024775345</v>
-      </c>
-      <c r="L7" s="106" t="s">
+        <v>-0.55303065155393227</v>
+      </c>
+      <c r="L7" s="94" t="s">
         <v>222</v>
       </c>
       <c r="M7" s="34"/>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="68">
         <f>Financials!F105</f>
         <v>1107783000</v>
       </c>
       <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="74" t="s">
+      <c r="N8" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="70">
         <f>O5/(O6+O7)</f>
         <v>-2.8214068303686296E-3</v>
       </c>
       <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54">
         <v>2019</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <v>2020</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>2021</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>2022</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>2023</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="60">
         <v>2024</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="60">
         <v>2025</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="60">
         <v>2026</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="61">
         <v>2027</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="72" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O9" s="68">
         <f>Financials!F25</f>
         <v>7408000</v>
       </c>
       <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="49">
         <v>149805000</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>236577000</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>387864000</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <v>585944000</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="49">
         <v>770000000</v>
       </c>
-      <c r="G10" s="51">
-        <v>980000000</v>
-      </c>
-      <c r="H10" s="51">
-        <v>1220000000</v>
-      </c>
-      <c r="I10" s="51">
-        <v>1582000000</v>
-      </c>
-      <c r="J10" s="53">
-        <v>1981000000</v>
-      </c>
-      <c r="K10" s="58" t="s">
+      <c r="G10" s="49">
+        <v>940000000</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1166000000</v>
+      </c>
+      <c r="I10" s="49">
+        <v>1515000000</v>
+      </c>
+      <c r="J10" s="51">
+        <v>1838000000</v>
+      </c>
+      <c r="K10" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="N10" s="72" t="s">
+      <c r="L10" s="35"/>
+      <c r="N10" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="68">
         <f>Financials!F24</f>
         <v>-470505000</v>
       </c>
       <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.57923300290377489</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <f t="shared" si="0"/>
         <v>0.6394831281147364</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>0.51069447022667736</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="37">
         <f t="shared" si="0"/>
         <v>0.31411875537594036</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="H11" s="38">
+        <v>0.22077922077922074</v>
+      </c>
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>0.24489795918367352</v>
-      </c>
-      <c r="I11" s="38">
+        <v>0.24042553191489358</v>
+      </c>
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>0.29672131147540992</v>
-      </c>
-      <c r="J11" s="59">
+        <v>0.29931389365351624</v>
+      </c>
+      <c r="J11" s="57">
         <f t="shared" si="0"/>
-        <v>0.25221238938053103</v>
-      </c>
-      <c r="K11" s="59">
+        <v>0.21320132013201309</v>
+      </c>
+      <c r="K11" s="57">
         <f>SUM(F11:J11)/5</f>
-        <v>0.27613553762856552</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="72" t="s">
+        <v>0.25756774437111679</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="71">
         <f>O9/O10</f>
         <v>-1.5744784858821904E-2</v>
       </c>
       <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="49">
         <v>-95042000</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>-229828000</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>-342801000</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="49">
         <v>-452551000</v>
       </c>
-      <c r="F12" s="52">
-        <v>20000000</v>
-      </c>
-      <c r="G12" s="51">
-        <v>67624000</v>
-      </c>
-      <c r="H12" s="51">
-        <v>130000000</v>
-      </c>
-      <c r="I12" s="51">
-        <v>219000000</v>
-      </c>
-      <c r="J12" s="53">
-        <v>392000000</v>
-      </c>
-      <c r="K12" s="60" t="s">
+      <c r="F12" s="50">
+        <v>40000000</v>
+      </c>
+      <c r="G12" s="49">
+        <v>59000000</v>
+      </c>
+      <c r="H12" s="49">
+        <v>103000000</v>
+      </c>
+      <c r="I12" s="49">
+        <v>176000000</v>
+      </c>
+      <c r="J12" s="51">
+        <v>285000000</v>
+      </c>
+      <c r="K12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="72" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="71">
         <f>O8*(1-O11)</f>
         <v>-2.8658292739119945E-3</v>
       </c>
       <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38">
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.4181730182445658</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <f t="shared" si="1"/>
         <v>0.49155455384026325</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>0.32015659230865712</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="37">
         <f t="shared" si="1"/>
-        <v>-1.0441939140560954</v>
-      </c>
-      <c r="G13" s="38">
+        <v>-1.0883878281121906</v>
+      </c>
+      <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>2.3812000000000002</v>
-      </c>
-      <c r="H13" s="38">
+        <v>0.47500000000000009</v>
+      </c>
+      <c r="H13" s="36">
         <f t="shared" si="1"/>
-        <v>0.92239441618360352</v>
-      </c>
-      <c r="I13" s="38">
+        <v>0.74576271186440679</v>
+      </c>
+      <c r="I13" s="36">
         <f t="shared" si="1"/>
-        <v>0.68461538461538463</v>
-      </c>
-      <c r="J13" s="59">
+        <v>0.70873786407766981</v>
+      </c>
+      <c r="J13" s="57">
         <f t="shared" si="1"/>
-        <v>0.78995433789954328</v>
-      </c>
-      <c r="K13" s="59">
-        <f>SUM(F13:J13)/5</f>
-        <v>0.74679404492848722</v>
-      </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="116" t="s">
+        <v>0.61931818181818188</v>
+      </c>
+      <c r="K13" s="57">
+        <f>AVERAGE(G13:J13)</f>
+        <v>0.6372046894400647</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="117"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="40">
         <f>B12/B10</f>
         <v>-0.63443810286706048</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="40">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-0.97147229020572579</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="40">
         <f t="shared" si="2"/>
         <v>-0.88381752366808985</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="40">
         <f t="shared" si="2"/>
         <v>-0.77234513878459377</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="41">
         <f t="shared" si="2"/>
-        <v>2.5974025974025976E-2</v>
-      </c>
-      <c r="G14" s="42">
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G14" s="40">
         <f t="shared" si="2"/>
-        <v>6.9004081632653064E-2</v>
-      </c>
-      <c r="H14" s="42">
+        <v>6.2765957446808504E-2</v>
+      </c>
+      <c r="H14" s="40">
         <f t="shared" si="2"/>
-        <v>0.10655737704918032</v>
-      </c>
-      <c r="I14" s="42">
+        <v>8.8336192109777015E-2</v>
+      </c>
+      <c r="I14" s="40">
         <f t="shared" si="2"/>
-        <v>0.13843236409608092</v>
-      </c>
-      <c r="J14" s="44">
+        <v>0.11617161716171617</v>
+      </c>
+      <c r="J14" s="42">
         <f t="shared" si="2"/>
-        <v>0.19787985865724381</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="72" t="s">
+        <v>0.15505984766050054</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="49">
         <v>-70788000</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="49">
         <v>-83097000</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <v>-108660000</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <v>-161454000</v>
       </c>
-      <c r="F15" s="52">
-        <v>-30000000</v>
-      </c>
-      <c r="G15" s="51">
-        <v>46000000</v>
-      </c>
-      <c r="H15" s="51">
-        <v>109000000</v>
-      </c>
-      <c r="I15" s="51">
-        <v>214000000</v>
-      </c>
-      <c r="J15" s="53">
-        <v>327000000</v>
-      </c>
-      <c r="K15" s="60" t="s">
+      <c r="F15" s="50">
+        <v>-36000000</v>
+      </c>
+      <c r="G15" s="49">
+        <v>30000000</v>
+      </c>
+      <c r="H15" s="49">
+        <v>98000000</v>
+      </c>
+      <c r="I15" s="49">
+        <v>195000000</v>
+      </c>
+      <c r="J15" s="51">
+        <v>330000000</v>
+      </c>
+      <c r="K15" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="72" t="s">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="O15" s="77" cm="1">
+      <c r="O15" s="72" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.4809999999999999</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38">
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.17388540430581445</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <f t="shared" si="3"/>
         <v>0.30762843423950326</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <f t="shared" si="3"/>
         <v>0.48586416344561023</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <f t="shared" si="3"/>
-        <v>-0.8141885614478428</v>
-      </c>
-      <c r="G16" s="38">
+        <v>-0.77702627373741129</v>
+      </c>
+      <c r="G16" s="36">
         <f t="shared" si="3"/>
-        <v>-2.5333333333333332</v>
-      </c>
-      <c r="H16" s="38">
+        <v>-1.8333333333333335</v>
+      </c>
+      <c r="H16" s="36">
         <f t="shared" si="3"/>
-        <v>1.3695652173913042</v>
-      </c>
-      <c r="I16" s="38">
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="I16" s="36">
         <f t="shared" si="3"/>
-        <v>0.96330275229357798</v>
-      </c>
-      <c r="J16" s="59">
+        <v>0.98979591836734704</v>
+      </c>
+      <c r="J16" s="57">
         <f t="shared" si="3"/>
-        <v>0.52803738317756999</v>
-      </c>
-      <c r="K16" s="59">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="K16" s="57">
         <f>SUM(F16:J16)/5</f>
-        <v>-9.7323308383744728E-2</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="72" t="s">
+        <v>0.26768213405419228</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="71">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107" t="s">
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <f>B15/B10</f>
         <v>-0.47253429458295787</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-0.35124716265740119</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="40">
         <f t="shared" si="4"/>
         <v>-0.28014974320895986</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <f t="shared" si="4"/>
         <v>-0.27554510328632087</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="40">
         <f t="shared" si="4"/>
-        <v>-3.896103896103896E-2</v>
-      </c>
-      <c r="G17" s="42">
+        <v>-4.6753246753246755E-2</v>
+      </c>
+      <c r="G17" s="40">
         <f t="shared" si="4"/>
-        <v>4.6938775510204082E-2</v>
-      </c>
-      <c r="H17" s="42">
+        <v>3.1914893617021274E-2</v>
+      </c>
+      <c r="H17" s="40">
         <f t="shared" si="4"/>
-        <v>8.9344262295081966E-2</v>
-      </c>
-      <c r="I17" s="42">
+        <v>8.4048027444253853E-2</v>
+      </c>
+      <c r="I17" s="40">
         <f t="shared" si="4"/>
-        <v>0.13527180783817952</v>
-      </c>
-      <c r="J17" s="44">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="J17" s="42">
         <f t="shared" si="4"/>
-        <v>0.16506814740030287</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="81" t="s">
+        <v>0.1795429815016322</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="77">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.14070748999999999</v>
+        <v>0.12950158000000001</v>
       </c>
       <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="46">
         <v>0.56269644017894693</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>0.68495732755750693</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <v>-0.12917479561206838</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>-0.1839425959772869</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="116" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="117"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37" t="s">
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="72" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="73">
         <f>O6+O7</f>
         <v>1115401000</v>
       </c>
       <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="72" t="s">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="73">
         <f>A3</f>
-        <v>5200010439</v>
+        <v>7028788000</v>
       </c>
       <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="str" cm="1">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2014</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="72" t="s">
+      <c r="E21" s="123"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="O21" s="78">
+      <c r="O21" s="73">
         <f>O19+O20</f>
-        <v>6315411439</v>
+        <v>8144189000</v>
       </c>
       <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118" t="str" cm="1">
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="121" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="74" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="79">
+      <c r="O22" s="74">
         <f>(O19/O21)</f>
-        <v>0.17661572975467388</v>
+        <v>0.13695666935037976</v>
       </c>
       <c r="P22" s="34"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="81" t="s">
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="75">
         <f>O20/O21</f>
-        <v>0.82338427024532612</v>
+        <v>0.86304333064962024</v>
       </c>
       <c r="P23" s="34"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="108" t="s">
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="109"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="34"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="110">
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11535018344313724</v>
-      </c>
-      <c r="O25" s="111"/>
+        <v>0.11137298049530645</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="118"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="118"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="118"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -9765,8 +9880,10 @@
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -9783,538 +9900,598 @@
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O62" s="34"/>
       <c r="P62" s="34"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O63" s="34"/>
       <c r="P63" s="34"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O64" s="34"/>
       <c r="P64" s="34"/>
     </row>
@@ -10511,9 +10688,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:CFLT/explorer/revenue_proj" xr:uid="{46B29E1A-F942-8248-87B5-EAF8538307C2}"/>

--- a/Technology/Software/Confluent.xlsx
+++ b/Technology/Software/Confluent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6046A93-7B20-5E40-9A44-08B35C7DF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9AD9E-CFE2-2642-BC2D-1BA19F5E3CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1739,6 +1739,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1758,7 +1760,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1771,6 +1773,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1899,10 +1903,10 @@
     <v>41.223500000000001</v>
     <v>14.69</v>
     <v>2.1019999999999999</v>
-    <v>1.61</v>
-    <v>7.5871999999999995E-2</v>
-    <v>-0.12</v>
-    <v>-5.2559999999999994E-3</v>
+    <v>-0.36</v>
+    <v>-1.5625E-2</v>
+    <v>0.09</v>
+    <v>3.9680000000000002E-3</v>
     <v>USD</v>
     <v>Confluent, Inc. is engaged in designing data infrastructure to connect the applications, systems, and data layers around a real-time central nervous system. The Company is focused on developing a category of data infrastructure focused on data in motion for developers and enterprises. It enables enterprises to deliver customer experiences for their business functions, departments, teams, applications, and data stores to have connectivity. It is designed to have real-time data from multiple sources streamed across an enterprise for real-time analysis. Its offering enables organizations to deploy production-ready applications that run across cloud infrastructures and data centers, with features for security and compliance. Its platform provides the capabilities to fill the structural, operational, and engineering gaps in businesses. It enables software developers to build their applications to connect data in motion and enables enterprises to make data in motion to everything they do.</v>
     <v>2761</v>
@@ -1910,24 +1914,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>899 W. Evelyn Avenue, Suite 111, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>22.965</v>
+    <v>23.13</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.875009825781</v>
+    <v>45269.041123356248</v>
     <v>0</v>
-    <v>20.81</v>
-    <v>7028788000</v>
+    <v>22.43</v>
+    <v>6982607268</v>
     <v>CONFLUENT, INC.</v>
     <v>CONFLUENT, INC.</v>
-    <v>21.5</v>
-    <v>21.22</v>
-    <v>22.83</v>
-    <v>22.71</v>
+    <v>22.8</v>
+    <v>23.04</v>
+    <v>22.68</v>
+    <v>22.77</v>
     <v>307875100</v>
     <v>CFLT</v>
     <v>CONFLUENT, INC. (XNAS:CFLT)</v>
-    <v>6469849</v>
-    <v>8258317</v>
+    <v>3802451</v>
+    <v>8540620</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2089,9 +2093,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8770,7 +8774,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8819,7 +8823,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7028788000</v>
+        <v>6982607268</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>192</v>
@@ -8839,15 +8843,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="81">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>1.8204891954785824E-2</v>
+        <f>AVERAGE(Financials!D129:J129)</f>
+        <v>2.660678139971568E-2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="97">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3916155238.1346927</v>
+        <v>3857122044.8643098</v>
       </c>
       <c r="J3" s="82" t="s">
         <v>196</v>
@@ -8892,21 +8896,21 @@
       </c>
       <c r="G4" s="66">
         <f>A5*(1+(5*G3))</f>
-        <v>335899264.65534443</v>
+        <v>348832927.420578</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="98">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2695466300.9004822</v>
+        <v>2645134275.849473</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="99" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.5871999999999995E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="L4" s="85" t="s">
         <v>242</v>
@@ -8951,14 +8955,14 @@
       </c>
       <c r="I5" s="98">
         <f>I4+G5-G6</f>
-        <v>3427620300.9004822</v>
+        <v>3377288275.849473</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="110" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>22.83</v>
+        <v>22.68</v>
       </c>
       <c r="L5" s="86" t="s">
         <v>210</v>
@@ -8978,7 +8982,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87">
         <f>O20/F10</f>
-        <v>9.128296103896103</v>
+        <v>9.0683211272727267</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>212</v>
@@ -9006,14 +9010,14 @@
       </c>
       <c r="I6" s="99">
         <f>N25</f>
-        <v>0.11137298049530645</v>
+        <v>0.11269491762656925</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="102">
         <f>I5/G4</f>
-        <v>10.204310225023727</v>
+        <v>9.6816785640696477</v>
       </c>
       <c r="L6" s="88" t="s">
         <v>216</v>
@@ -9033,14 +9037,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <f>O20/F12</f>
-        <v>175.71969999999999</v>
+        <v>174.56518170000001</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="107">
         <f>F15/A3</f>
-        <v>-5.1217934016504693E-3</v>
+        <v>-5.1556673056755396E-3</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>219</v>
@@ -9067,7 +9071,7 @@
       </c>
       <c r="K7" s="103">
         <f>K6/K5-1</f>
-        <v>-0.55303065155393227</v>
+        <v>-0.57311822909745813</v>
       </c>
       <c r="L7" s="94" t="s">
         <v>222</v>
@@ -9394,7 +9398,7 @@
       </c>
       <c r="O14" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
@@ -9546,7 +9550,7 @@
       </c>
       <c r="O17" s="77">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12950158000000001</v>
+        <v>0.13115457999999999</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -9629,7 +9633,7 @@
       </c>
       <c r="O20" s="73">
         <f>A3</f>
-        <v>7028788000</v>
+        <v>6982607268</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -9659,7 +9663,7 @@
       </c>
       <c r="O21" s="73">
         <f>O19+O20</f>
-        <v>8144189000</v>
+        <v>8098008268</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
@@ -9687,7 +9691,7 @@
       </c>
       <c r="O22" s="74">
         <f>(O19/O21)</f>
-        <v>0.13695666935037976</v>
+        <v>0.13773769587363924</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
@@ -9712,7 +9716,7 @@
       </c>
       <c r="O23" s="75">
         <f>O20/O21</f>
-        <v>0.86304333064962024</v>
+        <v>0.86226230412636073</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
@@ -9756,7 +9760,7 @@
       <c r="M25" s="35"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11137298049530645</v>
+        <v>0.11269491762656925</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="34"/>
